--- a/dataset/Matching_Results_Comparison/阈值设置85%.xlsx
+++ b/dataset/Matching_Results_Comparison/阈值设置85%.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="匹配结果" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G780"/>
+  <dimension ref="A1:M773"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,11 +481,7 @@
           <t>['门（急）诊诊断疾病编码', '门（急）诊诊断名称', '其他诊断疾病编码']</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>门（急）诊诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
         <v>13.76964409610595</v>
       </c>
@@ -500,7 +496,15 @@
         </is>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>llm选择与GT标准答案匹配准确率</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>0.4455958549222798</v>
       </c>
     </row>
     <row r="3">
@@ -514,11 +518,7 @@
           <t>['门（急）诊诊断名称', '门（急）诊诊断疾病编码', '其他诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>门（急）诊诊断名称</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
         <v>14.72868687499549</v>
       </c>
@@ -533,7 +533,15 @@
         </is>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>GT标准答案中空值个数</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>344</v>
       </c>
     </row>
     <row r="4">
@@ -547,11 +555,7 @@
           <t>['门（急）诊诊断名称', '门（急）诊诊断疾病编码', '1.一般医疗服务费']</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>门（急）诊诊断名称</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
         <v>4.898009142996432</v>
       </c>
@@ -562,7 +566,15 @@
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>llm选择为空，GT也为空的匹配成功数量</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>344</v>
       </c>
     </row>
     <row r="5">
@@ -576,11 +588,7 @@
           <t>['是否有出院31日内再住院计划', '出院31天再住院计划目的', '住院总费用']</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>是否有出院31日内再住院计划</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
         <v>19.23021177333643</v>
       </c>
@@ -595,7 +603,15 @@
         </is>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>llm选择为空的数量</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>772</v>
       </c>
     </row>
     <row r="6">
@@ -609,11 +625,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '住院总费用']</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
         <v>16.35311842917309</v>
       </c>
@@ -628,7 +640,15 @@
         </is>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>llm选择非空的数量</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -642,11 +662,7 @@
           <t>['离院方式', '麻醉方式', '医疗付费方式']</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>离院方式</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
         <v>8.423385710780108</v>
       </c>
@@ -661,7 +677,15 @@
         </is>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>llm选择非空，但GT是空的数量</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -688,6 +712,14 @@
       <c r="G8" t="b">
         <v>1</v>
       </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>llm选择为空，GT不为空的数量</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>428</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -800,11 +832,7 @@
           <t>['主要诊断疾病编码', '主要诊断诊断名称', '主要诊断入院病情']</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>主要诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
         <v>6.324870027373642</v>
       </c>
@@ -819,7 +847,7 @@
         </is>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -833,11 +861,7 @@
           <t>['主要诊断诊断名称', '主要诊断入院病情', '主要诊断疾病编码']</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>主要诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
         <v>6.590587313669886</v>
       </c>
@@ -852,7 +876,7 @@
         </is>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -866,11 +890,7 @@
           <t>['主要诊断入院病情', '其他诊断入院病情', '主要诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>主要诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
         <v>10.43767578895323</v>
       </c>
@@ -885,7 +905,7 @@
         </is>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -899,11 +919,7 @@
           <t>['主要诊断诊断名称', '主要诊断入院病情', '主要诊断疾病编码']</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>主要诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
         <v>4.443404900691753</v>
       </c>
@@ -914,7 +930,7 @@
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -928,11 +944,7 @@
           <t>['其他诊断疾病编码', '其他诊断', '其他诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -947,7 +959,7 @@
         </is>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -961,11 +973,7 @@
           <t>['其他诊断诊断名称', '其他诊断', '主要诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -980,7 +988,7 @@
         </is>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -994,11 +1002,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '其他诊断']</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -1013,7 +1017,7 @@
         </is>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1027,11 +1031,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '其他诊断']</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
         <v>5.326361842644218</v>
       </c>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1056,11 +1056,7 @@
           <t>['其他诊断疾病编码', '其他诊断', '其他诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -1075,7 +1071,7 @@
         </is>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1089,11 +1085,7 @@
           <t>['其他诊断诊断名称', '其他诊断', '主要诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -1108,7 +1100,7 @@
         </is>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1122,11 +1114,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '其他诊断']</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -1141,7 +1129,7 @@
         </is>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1155,11 +1143,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '其他诊断']</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
         <v>5.326361842644218</v>
       </c>
@@ -1170,7 +1154,7 @@
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1184,11 +1168,7 @@
           <t>['其他诊断疾病编码', '其他诊断', '3.护理费']</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -1203,7 +1183,7 @@
         </is>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1217,11 +1197,7 @@
           <t>['其他诊断诊断名称', '其他诊断', '3.护理费']</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -1236,7 +1212,7 @@
         </is>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1250,11 +1226,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '其他诊断']</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -1269,7 +1241,7 @@
         </is>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1283,11 +1255,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '其他诊断']</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
         <v>5.326361842644218</v>
       </c>
@@ -1298,7 +1266,7 @@
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1312,11 +1280,7 @@
           <t>['其他诊断疾病编码', '其他诊断', '其他诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -1331,7 +1295,7 @@
         </is>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1345,11 +1309,7 @@
           <t>['其他诊断诊断名称', '其他诊断', '主要诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -1364,7 +1324,7 @@
         </is>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1378,11 +1338,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '其他诊断']</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -1397,7 +1353,7 @@
         </is>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1411,11 +1367,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '其他诊断']</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
         <v>5.326361842644218</v>
       </c>
@@ -1426,7 +1378,7 @@
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1440,11 +1392,7 @@
           <t>['其他诊断疾病编码', '5.病理诊断费', '其他诊断']</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -1459,7 +1407,7 @@
         </is>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1473,11 +1421,7 @@
           <t>['其他诊断诊断名称', '5.病理诊断费', '其他诊断']</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -1492,7 +1436,7 @@
         </is>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1506,11 +1450,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '5.病理诊断费']</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -1525,7 +1465,7 @@
         </is>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1539,11 +1479,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '5.病理诊断费']</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
         <v>5.326361842644218</v>
       </c>
@@ -1554,7 +1490,7 @@
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1568,11 +1504,7 @@
           <t>['其他诊断疾病编码', '6.实验室诊断费', '其他诊断']</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -1587,7 +1519,7 @@
         </is>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1601,11 +1533,7 @@
           <t>['其他诊断诊断名称', '6.实验室诊断费', '其他诊断']</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -1620,7 +1548,7 @@
         </is>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1634,11 +1562,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '6.实验室诊断费']</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -1653,7 +1577,7 @@
         </is>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1667,11 +1591,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '6.实验室诊断费']</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
         <v>5.326361842644218</v>
       </c>
@@ -1682,7 +1602,7 @@
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1696,11 +1616,7 @@
           <t>['其他诊断疾病编码', '7.影像学诊断费', '其他诊断']</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -1715,7 +1631,7 @@
         </is>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1729,11 +1645,7 @@
           <t>['其他诊断诊断名称', '7.影像学诊断费', '其他诊断']</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -1748,7 +1660,7 @@
         </is>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1762,11 +1674,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '7.影像学诊断费']</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -1781,7 +1689,7 @@
         </is>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1795,11 +1703,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '7.影像学诊断费']</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
         <v>5.326361842644218</v>
       </c>
@@ -1810,7 +1714,7 @@
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1824,11 +1728,7 @@
           <t>['其他诊断疾病编码', '其他诊断', '8.临床诊断项目费']</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -1843,7 +1743,7 @@
         </is>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1857,11 +1757,7 @@
           <t>['其他诊断诊断名称', '其他诊断', '8.临床诊断项目费']</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -1876,7 +1772,7 @@
         </is>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1890,11 +1786,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '其他诊断']</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -1909,7 +1801,7 @@
         </is>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1923,11 +1815,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '其他诊断']</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
         <v>5.326361842644218</v>
       </c>
@@ -1938,7 +1826,7 @@
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1952,11 +1840,7 @@
           <t>['其他诊断疾病编码', '其他诊断', '其他诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -1971,7 +1855,7 @@
         </is>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1985,11 +1869,7 @@
           <t>['其他诊断诊断名称', '其他诊断', '主要诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -2004,7 +1884,7 @@
         </is>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2018,11 +1898,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '其他诊断']</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -2037,7 +1913,7 @@
         </is>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2051,11 +1927,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '其他诊断']</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
         <v>5.326361842644218</v>
       </c>
@@ -2066,7 +1938,7 @@
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2080,11 +1952,7 @@
           <t>['其他诊断疾病编码', '其他诊断', '其他诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -2099,7 +1967,7 @@
         </is>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2113,11 +1981,7 @@
           <t>['其他诊断诊断名称', '其他诊断', '10.手术治疗费']</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -2132,7 +1996,7 @@
         </is>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2146,11 +2010,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '其他诊断']</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -2165,7 +2025,7 @@
         </is>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2179,11 +2039,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '其他诊断']</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C56" t="inlineStr"/>
       <c r="D56" t="n">
         <v>5.326361842644218</v>
       </c>
@@ -2194,7 +2050,7 @@
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2208,11 +2064,7 @@
           <t>['其他诊断疾病编码', '其他诊断', '其他诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -2227,7 +2079,7 @@
         </is>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2241,11 +2093,7 @@
           <t>['其他诊断诊断名称', '其他诊断', '11.康复费']</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -2260,7 +2108,7 @@
         </is>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2274,11 +2122,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '其他诊断']</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -2293,7 +2137,7 @@
         </is>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2307,11 +2151,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '其他诊断']</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
         <v>5.326361842644218</v>
       </c>
@@ -2322,7 +2162,7 @@
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2336,11 +2176,7 @@
           <t>['其他诊断疾病编码', '其他诊断', '其他诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -2355,7 +2191,7 @@
         </is>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2369,11 +2205,7 @@
           <t>['其他诊断诊断名称', '其他诊断', '12.中医治疗费']</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -2388,7 +2220,7 @@
         </is>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2402,11 +2234,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '其他诊断']</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -2421,7 +2249,7 @@
         </is>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2435,11 +2263,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '其他诊断']</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="n">
         <v>5.326361842644218</v>
       </c>
@@ -2450,7 +2274,7 @@
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2464,11 +2288,7 @@
           <t>['其他诊断疾病编码', '其他诊断', '其他诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -2483,7 +2303,7 @@
         </is>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2497,11 +2317,7 @@
           <t>['其他诊断诊断名称', '其他诊断', '13.西药费']</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -2516,7 +2332,7 @@
         </is>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2530,11 +2346,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '其他诊断']</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -2549,7 +2361,7 @@
         </is>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2563,11 +2375,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '其他诊断']</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C68" t="inlineStr"/>
       <c r="D68" t="n">
         <v>5.326361842644218</v>
       </c>
@@ -2578,7 +2386,7 @@
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2592,11 +2400,7 @@
           <t>['其他诊断疾病编码', '其他诊断', '其他诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C69" t="inlineStr"/>
       <c r="D69" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -2611,7 +2415,7 @@
         </is>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2625,11 +2429,7 @@
           <t>['其他诊断诊断名称', '其他诊断', '14.中成药费']</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C70" t="inlineStr"/>
       <c r="D70" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -2644,7 +2444,7 @@
         </is>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2658,11 +2458,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '其他诊断']</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C71" t="inlineStr"/>
       <c r="D71" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -2677,7 +2473,7 @@
         </is>
       </c>
       <c r="G71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2691,11 +2487,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '其他诊断']</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C72" t="inlineStr"/>
       <c r="D72" t="n">
         <v>5.326361842644218</v>
       </c>
@@ -2706,7 +2498,7 @@
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2720,11 +2512,7 @@
           <t>['其他诊断疾病编码', '其他诊断', '其他诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C73" t="inlineStr"/>
       <c r="D73" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -2739,7 +2527,7 @@
         </is>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2753,11 +2541,7 @@
           <t>['其他诊断诊断名称', '其他诊断', '15.中草药费']</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C74" t="inlineStr"/>
       <c r="D74" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -2772,7 +2556,7 @@
         </is>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2786,11 +2570,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '其他诊断']</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C75" t="inlineStr"/>
       <c r="D75" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -2805,7 +2585,7 @@
         </is>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2819,11 +2599,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '其他诊断']</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C76" t="inlineStr"/>
       <c r="D76" t="n">
         <v>5.326361842644218</v>
       </c>
@@ -2834,7 +2610,7 @@
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2848,11 +2624,7 @@
           <t>['其他诊断疾病编码', '其他诊断', '16.血费']</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C77" t="inlineStr"/>
       <c r="D77" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -2867,7 +2639,7 @@
         </is>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2881,11 +2653,7 @@
           <t>['其他诊断诊断名称', '其他诊断', '16.血费']</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C78" t="inlineStr"/>
       <c r="D78" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -2900,7 +2668,7 @@
         </is>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2914,11 +2682,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '其他诊断']</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C79" t="inlineStr"/>
       <c r="D79" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -2933,7 +2697,7 @@
         </is>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2947,11 +2711,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '其他诊断']</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C80" t="inlineStr"/>
       <c r="D80" t="n">
         <v>5.326361842644218</v>
       </c>
@@ -2962,7 +2722,7 @@
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2976,11 +2736,7 @@
           <t>['其他诊断疾病编码', '其他诊断', '其他诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C81" t="inlineStr"/>
       <c r="D81" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -2995,7 +2751,7 @@
         </is>
       </c>
       <c r="G81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3009,11 +2765,7 @@
           <t>['其他诊断诊断名称', '其他诊断', '主要诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C82" t="inlineStr"/>
       <c r="D82" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -3028,7 +2780,7 @@
         </is>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3042,11 +2794,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '其他诊断']</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C83" t="inlineStr"/>
       <c r="D83" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -3061,7 +2809,7 @@
         </is>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -3075,11 +2823,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '其他诊断']</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C84" t="inlineStr"/>
       <c r="D84" t="n">
         <v>5.326361842644218</v>
       </c>
@@ -3090,7 +2834,7 @@
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3104,11 +2848,7 @@
           <t>['其他诊断疾病编码', '其他诊断', '其他诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C85" t="inlineStr"/>
       <c r="D85" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -3123,7 +2863,7 @@
         </is>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3137,11 +2877,7 @@
           <t>['其他诊断诊断名称', '其他诊断', '主要诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C86" t="inlineStr"/>
       <c r="D86" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -3156,7 +2892,7 @@
         </is>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3170,11 +2906,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '其他诊断']</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C87" t="inlineStr"/>
       <c r="D87" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -3189,7 +2921,7 @@
         </is>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -3203,11 +2935,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '其他诊断']</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C88" t="inlineStr"/>
       <c r="D88" t="n">
         <v>5.326361842644218</v>
       </c>
@@ -3218,7 +2946,7 @@
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3232,11 +2960,7 @@
           <t>['其他诊断疾病编码', '其他诊断', '其他诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C89" t="inlineStr"/>
       <c r="D89" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -3251,7 +2975,7 @@
         </is>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3265,11 +2989,7 @@
           <t>['其他诊断诊断名称', '其他诊断', '主要诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C90" t="inlineStr"/>
       <c r="D90" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -3284,7 +3004,7 @@
         </is>
       </c>
       <c r="G90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -3298,11 +3018,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '其他诊断']</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C91" t="inlineStr"/>
       <c r="D91" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -3317,7 +3033,7 @@
         </is>
       </c>
       <c r="G91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3331,11 +3047,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '其他诊断']</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C92" t="inlineStr"/>
       <c r="D92" t="n">
         <v>5.326361842644218</v>
       </c>
@@ -3346,7 +3058,7 @@
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3360,11 +3072,7 @@
           <t>['其他诊断疾病编码', '其他诊断', '其他诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C93" t="inlineStr"/>
       <c r="D93" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -3379,7 +3087,7 @@
         </is>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3393,11 +3101,7 @@
           <t>['其他诊断诊断名称', '其他诊断', '主要诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C94" t="inlineStr"/>
       <c r="D94" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -3412,7 +3116,7 @@
         </is>
       </c>
       <c r="G94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3426,11 +3130,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '其他诊断']</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C95" t="inlineStr"/>
       <c r="D95" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -3445,7 +3145,7 @@
         </is>
       </c>
       <c r="G95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3459,11 +3159,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '其他诊断']</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C96" t="inlineStr"/>
       <c r="D96" t="n">
         <v>5.326361842644218</v>
       </c>
@@ -3474,7 +3170,7 @@
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3488,11 +3184,7 @@
           <t>['其他诊断疾病编码', '其他诊断', '其他诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C97" t="inlineStr"/>
       <c r="D97" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -3507,7 +3199,7 @@
         </is>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3521,11 +3213,7 @@
           <t>['其他诊断诊断名称', '其他诊断', '主要诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C98" t="inlineStr"/>
       <c r="D98" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -3540,7 +3228,7 @@
         </is>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3554,11 +3242,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '其他诊断']</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C99" t="inlineStr"/>
       <c r="D99" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -3573,7 +3257,7 @@
         </is>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3587,11 +3271,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '其他诊断']</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C100" t="inlineStr"/>
       <c r="D100" t="n">
         <v>5.326361842644218</v>
       </c>
@@ -3602,7 +3282,7 @@
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3616,11 +3296,7 @@
           <t>['其他诊断疾病编码', '其他诊断', '其他诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C101" t="inlineStr"/>
       <c r="D101" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -3635,7 +3311,7 @@
         </is>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -3649,11 +3325,7 @@
           <t>['其他诊断诊断名称', '其他诊断', '主要诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C102" t="inlineStr"/>
       <c r="D102" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -3668,7 +3340,7 @@
         </is>
       </c>
       <c r="G102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -3682,11 +3354,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '其他诊断']</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C103" t="inlineStr"/>
       <c r="D103" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -3701,7 +3369,7 @@
         </is>
       </c>
       <c r="G103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -3715,11 +3383,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '其他诊断']</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C104" t="inlineStr"/>
       <c r="D104" t="n">
         <v>5.326361842644218</v>
       </c>
@@ -3730,7 +3394,7 @@
       </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -3744,11 +3408,7 @@
           <t>['其他诊断疾病编码', '其他诊断', '其他诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C105" t="inlineStr"/>
       <c r="D105" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -3763,7 +3423,7 @@
         </is>
       </c>
       <c r="G105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -3777,11 +3437,7 @@
           <t>['其他诊断诊断名称', '其他诊断', '主要诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C106" t="inlineStr"/>
       <c r="D106" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -3796,7 +3452,7 @@
         </is>
       </c>
       <c r="G106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -3810,11 +3466,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '其他诊断']</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C107" t="inlineStr"/>
       <c r="D107" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -3829,7 +3481,7 @@
         </is>
       </c>
       <c r="G107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -3843,11 +3495,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '其他诊断']</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C108" t="inlineStr"/>
       <c r="D108" t="n">
         <v>5.326361842644218</v>
       </c>
@@ -3858,7 +3506,7 @@
       </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -3872,11 +3520,7 @@
           <t>['其他诊断疾病编码', '24.其他费：', '其他诊断']</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C109" t="inlineStr"/>
       <c r="D109" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -3891,7 +3535,7 @@
         </is>
       </c>
       <c r="G109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -3905,11 +3549,7 @@
           <t>['其他诊断诊断名称', '24.其他费：', '其他诊断']</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C110" t="inlineStr"/>
       <c r="D110" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -3924,7 +3564,7 @@
         </is>
       </c>
       <c r="G110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -3938,11 +3578,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '24.其他费：']</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C111" t="inlineStr"/>
       <c r="D111" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -3957,7 +3593,7 @@
         </is>
       </c>
       <c r="G111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -3971,11 +3607,7 @@
           <t>['24.其他费：', '出院31天再住院计划目的', '是否有出院31日内再住院计划']</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>24.其他费：</t>
-        </is>
-      </c>
+      <c r="C112" t="inlineStr"/>
       <c r="D112" t="n">
         <v>5.537517229096013</v>
       </c>
@@ -3986,7 +3618,7 @@
       </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -4000,11 +3632,7 @@
           <t>['其他诊断疾病编码', '其他诊断', '其他诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C113" t="inlineStr"/>
       <c r="D113" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -4019,7 +3647,7 @@
         </is>
       </c>
       <c r="G113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -4033,11 +3661,7 @@
           <t>['其他诊断诊断名称', '其他诊断', '主要诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C114" t="inlineStr"/>
       <c r="D114" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -4052,7 +3676,7 @@
         </is>
       </c>
       <c r="G114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -4066,11 +3690,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '其他诊断']</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C115" t="inlineStr"/>
       <c r="D115" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -4085,7 +3705,7 @@
         </is>
       </c>
       <c r="G115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -4099,11 +3719,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '其他诊断']</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C116" t="inlineStr"/>
       <c r="D116" t="n">
         <v>5.326361842644218</v>
       </c>
@@ -4114,7 +3730,7 @@
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -4128,11 +3744,7 @@
           <t>['其他诊断疾病编码', '其他诊断', '其他诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C117" t="inlineStr"/>
       <c r="D117" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -4147,7 +3759,7 @@
         </is>
       </c>
       <c r="G117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -4161,11 +3773,7 @@
           <t>['其他诊断诊断名称', '其他诊断', '主要诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C118" t="inlineStr"/>
       <c r="D118" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -4180,7 +3788,7 @@
         </is>
       </c>
       <c r="G118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -4194,11 +3802,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '其他诊断']</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C119" t="inlineStr"/>
       <c r="D119" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -4213,7 +3817,7 @@
         </is>
       </c>
       <c r="G119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -4227,11 +3831,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '其他诊断']</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C120" t="inlineStr"/>
       <c r="D120" t="n">
         <v>5.326361842644218</v>
       </c>
@@ -4242,7 +3842,7 @@
       </c>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -4256,11 +3856,7 @@
           <t>['其他诊断疾病编码', '其他诊断', '其他诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C121" t="inlineStr"/>
       <c r="D121" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -4275,7 +3871,7 @@
         </is>
       </c>
       <c r="G121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -4289,11 +3885,7 @@
           <t>['其他诊断诊断名称', '其他诊断', '主要诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C122" t="inlineStr"/>
       <c r="D122" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -4308,7 +3900,7 @@
         </is>
       </c>
       <c r="G122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -4322,11 +3914,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '其他诊断']</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C123" t="inlineStr"/>
       <c r="D123" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -4341,7 +3929,7 @@
         </is>
       </c>
       <c r="G123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -4355,11 +3943,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '其他诊断']</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C124" t="inlineStr"/>
       <c r="D124" t="n">
         <v>5.326361842644218</v>
       </c>
@@ -4370,7 +3954,7 @@
       </c>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -4384,11 +3968,7 @@
           <t>['其他诊断疾病编码', '其他诊断', '其他诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C125" t="inlineStr"/>
       <c r="D125" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -4403,7 +3983,7 @@
         </is>
       </c>
       <c r="G125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -4417,11 +3997,7 @@
           <t>['其他诊断诊断名称', '其他诊断', '主要诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C126" t="inlineStr"/>
       <c r="D126" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -4436,7 +4012,7 @@
         </is>
       </c>
       <c r="G126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -4450,11 +4026,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '其他诊断']</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C127" t="inlineStr"/>
       <c r="D127" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -4469,7 +4041,7 @@
         </is>
       </c>
       <c r="G127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -4483,11 +4055,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '其他诊断']</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C128" t="inlineStr"/>
       <c r="D128" t="n">
         <v>5.326361842644218</v>
       </c>
@@ -4498,7 +4066,7 @@
       </c>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -4512,11 +4080,7 @@
           <t>['其他诊断疾病编码', '其他诊断', '其他诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C129" t="inlineStr"/>
       <c r="D129" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -4531,7 +4095,7 @@
         </is>
       </c>
       <c r="G129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -4545,11 +4109,7 @@
           <t>['其他诊断诊断名称', '其他诊断', '主要诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C130" t="inlineStr"/>
       <c r="D130" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -4564,7 +4124,7 @@
         </is>
       </c>
       <c r="G130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -4578,11 +4138,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '其他诊断']</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C131" t="inlineStr"/>
       <c r="D131" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -4597,7 +4153,7 @@
         </is>
       </c>
       <c r="G131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -4611,11 +4167,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '其他诊断']</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C132" t="inlineStr"/>
       <c r="D132" t="n">
         <v>5.326361842644218</v>
       </c>
@@ -4626,7 +4178,7 @@
       </c>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -4640,11 +4192,7 @@
           <t>['其他诊断疾病编码', '其他诊断', '其他诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C133" t="inlineStr"/>
       <c r="D133" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -4659,7 +4207,7 @@
         </is>
       </c>
       <c r="G133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -4673,11 +4221,7 @@
           <t>['其他诊断诊断名称', '其他诊断', '主要诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C134" t="inlineStr"/>
       <c r="D134" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -4692,7 +4236,7 @@
         </is>
       </c>
       <c r="G134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -4706,11 +4250,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '其他诊断']</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C135" t="inlineStr"/>
       <c r="D135" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -4725,7 +4265,7 @@
         </is>
       </c>
       <c r="G135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -4739,11 +4279,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '其他诊断']</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C136" t="inlineStr"/>
       <c r="D136" t="n">
         <v>5.326361842644218</v>
       </c>
@@ -4754,7 +4290,7 @@
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -4768,11 +4304,7 @@
           <t>['其他诊断疾病编码', '出院31天再住院计划目的', '是否有出院31日内再住院计划']</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C137" t="inlineStr"/>
       <c r="D137" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -4787,7 +4319,7 @@
         </is>
       </c>
       <c r="G137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -4801,11 +4333,7 @@
           <t>['其他诊断诊断名称', '出院31天再住院计划目的', '是否有出院31日内再住院计划']</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C138" t="inlineStr"/>
       <c r="D138" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -4820,7 +4348,7 @@
         </is>
       </c>
       <c r="G138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -4834,11 +4362,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '出院31天再住院计划目的']</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C139" t="inlineStr"/>
       <c r="D139" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -4853,7 +4377,7 @@
         </is>
       </c>
       <c r="G139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -4867,11 +4391,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '其他诊断']</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C140" t="inlineStr"/>
       <c r="D140" t="n">
         <v>7.989542763966327</v>
       </c>
@@ -4882,7 +4402,7 @@
       </c>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -4896,11 +4416,7 @@
           <t>['其他诊断疾病编码', '其他诊断', '其他诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C141" t="inlineStr"/>
       <c r="D141" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -4915,7 +4431,7 @@
         </is>
       </c>
       <c r="G141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -4929,11 +4445,7 @@
           <t>['其他诊断诊断名称', '其他诊断', '主要诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C142" t="inlineStr"/>
       <c r="D142" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -4948,7 +4460,7 @@
         </is>
       </c>
       <c r="G142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -4962,11 +4474,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '其他诊断']</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C143" t="inlineStr"/>
       <c r="D143" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -4981,7 +4489,7 @@
         </is>
       </c>
       <c r="G143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -4995,11 +4503,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '其他诊断']</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C144" t="inlineStr"/>
       <c r="D144" t="n">
         <v>5.326361842644218</v>
       </c>
@@ -5010,7 +4514,7 @@
       </c>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -5024,11 +4528,7 @@
           <t>['其他诊断疾病编码', '其他诊断', '其他诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C145" t="inlineStr"/>
       <c r="D145" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -5043,7 +4543,7 @@
         </is>
       </c>
       <c r="G145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -5057,11 +4557,7 @@
           <t>['其他诊断诊断名称', '其他诊断', '主要诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C146" t="inlineStr"/>
       <c r="D146" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -5076,7 +4572,7 @@
         </is>
       </c>
       <c r="G146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -5090,11 +4586,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '其他诊断']</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C147" t="inlineStr"/>
       <c r="D147" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -5109,7 +4601,7 @@
         </is>
       </c>
       <c r="G147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -5123,11 +4615,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '其他诊断']</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C148" t="inlineStr"/>
       <c r="D148" t="n">
         <v>5.326361842644218</v>
       </c>
@@ -5138,7 +4626,7 @@
       </c>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -5152,11 +4640,7 @@
           <t>['其他诊断疾病编码', '其他诊断', '其他诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C149" t="inlineStr"/>
       <c r="D149" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -5171,7 +4655,7 @@
         </is>
       </c>
       <c r="G149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -5185,11 +4669,7 @@
           <t>['其他诊断诊断名称', '其他诊断', '主要诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C150" t="inlineStr"/>
       <c r="D150" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -5204,7 +4684,7 @@
         </is>
       </c>
       <c r="G150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -5218,11 +4698,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '其他诊断']</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C151" t="inlineStr"/>
       <c r="D151" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -5237,7 +4713,7 @@
         </is>
       </c>
       <c r="G151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -5251,11 +4727,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '其他诊断']</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C152" t="inlineStr"/>
       <c r="D152" t="n">
         <v>5.326361842644218</v>
       </c>
@@ -5266,7 +4738,7 @@
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -5280,11 +4752,7 @@
           <t>['其他诊断疾病编码', '其他诊断', '其他诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C153" t="inlineStr"/>
       <c r="D153" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -5299,7 +4767,7 @@
         </is>
       </c>
       <c r="G153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -5313,11 +4781,7 @@
           <t>['其他诊断诊断名称', '其他诊断', '主要诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C154" t="inlineStr"/>
       <c r="D154" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -5332,7 +4796,7 @@
         </is>
       </c>
       <c r="G154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -5346,11 +4810,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '其他诊断']</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C155" t="inlineStr"/>
       <c r="D155" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -5365,7 +4825,7 @@
         </is>
       </c>
       <c r="G155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -5379,11 +4839,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '其他诊断']</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C156" t="inlineStr"/>
       <c r="D156" t="n">
         <v>5.326361842644218</v>
       </c>
@@ -5394,7 +4850,7 @@
       </c>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -5408,11 +4864,7 @@
           <t>['其他诊断疾病编码', '其他诊断', '其他诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C157" t="inlineStr"/>
       <c r="D157" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -5427,7 +4879,7 @@
         </is>
       </c>
       <c r="G157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -5441,11 +4893,7 @@
           <t>['其他诊断诊断名称', '其他诊断', '主要诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C158" t="inlineStr"/>
       <c r="D158" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -5460,7 +4908,7 @@
         </is>
       </c>
       <c r="G158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -5474,11 +4922,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '其他诊断']</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C159" t="inlineStr"/>
       <c r="D159" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -5493,7 +4937,7 @@
         </is>
       </c>
       <c r="G159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -5507,11 +4951,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '其他诊断']</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C160" t="inlineStr"/>
       <c r="D160" t="n">
         <v>5.326361842644218</v>
       </c>
@@ -5522,7 +4962,7 @@
       </c>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -5536,11 +4976,7 @@
           <t>['其他诊断疾病编码', '其他诊断', '其他诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C161" t="inlineStr"/>
       <c r="D161" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -5555,7 +4991,7 @@
         </is>
       </c>
       <c r="G161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -5569,11 +5005,7 @@
           <t>['其他诊断诊断名称', '其他诊断', '主要诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C162" t="inlineStr"/>
       <c r="D162" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -5588,7 +5020,7 @@
         </is>
       </c>
       <c r="G162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -5602,11 +5034,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '其他诊断']</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C163" t="inlineStr"/>
       <c r="D163" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -5621,7 +5049,7 @@
         </is>
       </c>
       <c r="G163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -5635,11 +5063,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '其他诊断']</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C164" t="inlineStr"/>
       <c r="D164" t="n">
         <v>5.326361842644218</v>
       </c>
@@ -5650,7 +5074,7 @@
       </c>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -5664,11 +5088,7 @@
           <t>['其他诊断疾病编码', '其他诊断', '其他诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C165" t="inlineStr"/>
       <c r="D165" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -5683,7 +5103,7 @@
         </is>
       </c>
       <c r="G165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -5697,11 +5117,7 @@
           <t>['其他诊断诊断名称', '其他诊断', '主要诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C166" t="inlineStr"/>
       <c r="D166" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -5716,7 +5132,7 @@
         </is>
       </c>
       <c r="G166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -5730,11 +5146,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '其他诊断']</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C167" t="inlineStr"/>
       <c r="D167" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -5749,7 +5161,7 @@
         </is>
       </c>
       <c r="G167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -5763,11 +5175,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '其他诊断']</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C168" t="inlineStr"/>
       <c r="D168" t="n">
         <v>5.326361842644218</v>
       </c>
@@ -5778,7 +5186,7 @@
       </c>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -5792,11 +5200,7 @@
           <t>['其他诊断疾病编码', '其他诊断', '其他诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C169" t="inlineStr"/>
       <c r="D169" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -5811,7 +5215,7 @@
         </is>
       </c>
       <c r="G169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -5825,11 +5229,7 @@
           <t>['其他诊断诊断名称', '其他诊断', '主要诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C170" t="inlineStr"/>
       <c r="D170" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -5844,7 +5244,7 @@
         </is>
       </c>
       <c r="G170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -5858,11 +5258,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '其他诊断']</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C171" t="inlineStr"/>
       <c r="D171" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -5877,7 +5273,7 @@
         </is>
       </c>
       <c r="G171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -5891,11 +5287,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '其他诊断']</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C172" t="inlineStr"/>
       <c r="D172" t="n">
         <v>5.326361842644218</v>
       </c>
@@ -5906,7 +5298,7 @@
       </c>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -5920,11 +5312,7 @@
           <t>['其他诊断疾病编码', '其他诊断', '其他诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>其他诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C173" t="inlineStr"/>
       <c r="D173" t="n">
         <v>5.811594916863204</v>
       </c>
@@ -5939,7 +5327,7 @@
         </is>
       </c>
       <c r="G173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -5953,11 +5341,7 @@
           <t>['其他诊断诊断名称', '其他诊断', '主要诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C174" t="inlineStr"/>
       <c r="D174" t="n">
         <v>6.077312203159448</v>
       </c>
@@ -5972,7 +5356,7 @@
         </is>
       </c>
       <c r="G174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -5986,11 +5370,7 @@
           <t>['其他诊断入院病情', '主要诊断入院病情', '其他诊断']</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>其他诊断入院病情</t>
-        </is>
-      </c>
+      <c r="C175" t="inlineStr"/>
       <c r="D175" t="n">
         <v>9.92440067844279</v>
       </c>
@@ -6005,7 +5385,7 @@
         </is>
       </c>
       <c r="G175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -6019,11 +5399,7 @@
           <t>['出院31天再住院计划目的', '是否有出院31日内再住院计划', '其他诊断']</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>出院31天再住院计划目的</t>
-        </is>
-      </c>
+      <c r="C176" t="inlineStr"/>
       <c r="D176" t="n">
         <v>5.326361842644218</v>
       </c>
@@ -6034,7 +5410,7 @@
       </c>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -6106,11 +5482,7 @@
           <t>['病理号', '病理诊断名称', '5.病理诊断费']</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>病理诊断名称</t>
-        </is>
-      </c>
+      <c r="C179" t="inlineStr"/>
       <c r="D179" t="n">
         <v>8.423385710780108</v>
       </c>
@@ -6139,11 +5511,7 @@
           <t>['病理诊断名称', '病理号', '5.病理诊断费']</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>病理诊断名称</t>
-        </is>
-      </c>
+      <c r="C180" t="inlineStr"/>
       <c r="D180" t="n">
         <v>4.454322530537278</v>
       </c>
@@ -6172,11 +5540,7 @@
           <t>['病理诊断名称', '其他诊断诊断名称', '主要诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>病理诊断名称</t>
-        </is>
-      </c>
+      <c r="C181" t="inlineStr"/>
       <c r="D181" t="n">
         <v>6.856075617742881</v>
       </c>
@@ -6191,7 +5555,7 @@
         </is>
       </c>
       <c r="G181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -6205,11 +5569,7 @@
           <t>['病理号', '1.一般医疗服务费', '病理诊断名称']</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>病理号</t>
-        </is>
-      </c>
+      <c r="C182" t="inlineStr"/>
       <c r="D182" t="n">
         <v>8.423385710780108</v>
       </c>
@@ -6224,7 +5584,7 @@
         </is>
       </c>
       <c r="G182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -6238,11 +5598,7 @@
           <t>['病理诊断名称', '病理号', '5.病理诊断费']</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>病理号</t>
-        </is>
-      </c>
+      <c r="C183" t="inlineStr"/>
       <c r="D183" t="n">
         <v>4.454322530537278</v>
       </c>
@@ -6271,11 +5627,7 @@
           <t>['病理诊断名称', '其他诊断诊断名称', '主要诊断诊断名称']</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>其他诊断诊断名称</t>
-        </is>
-      </c>
+      <c r="C184" t="inlineStr"/>
       <c r="D184" t="n">
         <v>6.856075617742881</v>
       </c>
@@ -6304,11 +5656,7 @@
           <t>['病理号', '病理诊断名称', '2.一般治疗操作费']</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>病理诊断名称</t>
-        </is>
-      </c>
+      <c r="C185" t="inlineStr"/>
       <c r="D185" t="n">
         <v>8.423385710780108</v>
       </c>
@@ -6337,11 +5685,7 @@
           <t>['疾病编码', '其他诊断疾病编码', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>疾病编码</t>
-        </is>
-      </c>
+      <c r="C186" t="inlineStr"/>
       <c r="D186" t="n">
         <v>2.972893488883827</v>
       </c>
@@ -6352,7 +5696,7 @@
       </c>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -6366,11 +5710,7 @@
           <t>['重症监护室名称', '病理诊断名称', '手术及操作名称']</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>重症监护室名称</t>
-        </is>
-      </c>
+      <c r="C187" t="inlineStr"/>
       <c r="D187" t="n">
         <v>2.401753087205603</v>
       </c>
@@ -6381,7 +5721,7 @@
       </c>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -6395,11 +5735,7 @@
           <t>['其中：抗菌药物费', '24.其他费：', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>其中：抗菌药物费</t>
-        </is>
-      </c>
+      <c r="C188" t="inlineStr"/>
       <c r="D188" t="n">
         <v>3.419351816879299</v>
       </c>
@@ -6410,7 +5746,7 @@
       </c>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -6424,11 +5760,7 @@
           <t>['其中：抗菌药物费', '病理诊断名称', '重症监护室名称']</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>其中：抗菌药物费</t>
-        </is>
-      </c>
+      <c r="C189" t="inlineStr"/>
       <c r="D189" t="n">
         <v>3.419351816879299</v>
       </c>
@@ -6439,7 +5771,7 @@
       </c>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -6453,11 +5785,7 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>24.其他费：</t>
-        </is>
-      </c>
+      <c r="C190" t="inlineStr"/>
       <c r="D190" t="n">
         <v>0</v>
       </c>
@@ -6468,7 +5796,7 @@
       </c>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -6507,11 +5835,7 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>24.其他费：</t>
-        </is>
-      </c>
+      <c r="C192" t="inlineStr"/>
       <c r="D192" t="n">
         <v>0</v>
       </c>
@@ -6522,7 +5846,7 @@
       </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -6561,11 +5885,7 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>24.其他费：</t>
-        </is>
-      </c>
+      <c r="C194" t="inlineStr"/>
       <c r="D194" t="n">
         <v>0</v>
       </c>
@@ -6576,7 +5896,7 @@
       </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -6590,11 +5910,7 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>24.其他费：</t>
-        </is>
-      </c>
+      <c r="C195" t="inlineStr"/>
       <c r="D195" t="n">
         <v>0</v>
       </c>
@@ -6605,7 +5921,7 @@
       </c>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -6769,11 +6085,7 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>23.手术用一次性医用材料费</t>
-        </is>
-      </c>
+      <c r="C202" t="inlineStr"/>
       <c r="D202" t="n">
         <v>0</v>
       </c>
@@ -6784,7 +6096,7 @@
       </c>
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -7023,11 +6335,7 @@
           <t>['手术及操作日期', '24.其他费：', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C212" t="inlineStr"/>
       <c r="D212" t="n">
         <v>3.781781536270922</v>
       </c>
@@ -7038,7 +6346,7 @@
       </c>
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -7164,11 +6472,7 @@
           <t>['手术级别', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>手术级别</t>
-        </is>
-      </c>
+      <c r="C217" t="inlineStr"/>
       <c r="D217" t="n">
         <v>7.523945444003003</v>
       </c>
@@ -7183,7 +6487,7 @@
         </is>
       </c>
       <c r="G217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -7197,11 +6501,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C218" t="inlineStr"/>
       <c r="D218" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -7212,7 +6512,7 @@
       </c>
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -7226,11 +6526,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>手术及操作编码</t>
-        </is>
-      </c>
+      <c r="C219" t="inlineStr"/>
       <c r="D219" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -7241,7 +6537,7 @@
       </c>
       <c r="F219" t="inlineStr"/>
       <c r="G219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -7255,11 +6551,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C220" t="inlineStr"/>
       <c r="D220" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -7270,7 +6562,7 @@
       </c>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -7284,11 +6576,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C221" t="inlineStr"/>
       <c r="D221" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -7299,7 +6587,7 @@
       </c>
       <c r="F221" t="inlineStr"/>
       <c r="G221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -7313,11 +6601,7 @@
           <t>['切口愈合等级', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>切口愈合等级</t>
-        </is>
-      </c>
+      <c r="C222" t="inlineStr"/>
       <c r="D222" t="n">
         <v>12.69045250879904</v>
       </c>
@@ -7332,7 +6616,7 @@
         </is>
       </c>
       <c r="G222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -7400,11 +6684,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C225" t="inlineStr"/>
       <c r="D225" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -7415,7 +6695,7 @@
       </c>
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -7458,11 +6738,7 @@
           <t>['手术及操作名称', '手术及操作编码', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>手术及操作编码</t>
-        </is>
-      </c>
+      <c r="C227" t="inlineStr"/>
       <c r="D227" t="n">
         <v>6.86734992556722</v>
       </c>
@@ -7520,11 +6796,7 @@
           <t>['手术级别', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C229" t="inlineStr"/>
       <c r="D229" t="n">
         <v>7.523945444003003</v>
       </c>
@@ -7553,11 +6825,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C230" t="inlineStr"/>
       <c r="D230" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -7568,7 +6836,7 @@
       </c>
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -7632,11 +6900,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C233" t="inlineStr"/>
       <c r="D233" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -7647,7 +6911,7 @@
       </c>
       <c r="F233" t="inlineStr"/>
       <c r="G233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -7661,11 +6925,7 @@
           <t>['切口愈合等级', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>切口愈合等级</t>
-        </is>
-      </c>
+      <c r="C234" t="inlineStr"/>
       <c r="D234" t="n">
         <v>12.69045250879904</v>
       </c>
@@ -7680,7 +6940,7 @@
         </is>
       </c>
       <c r="G234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -7914,11 +7174,7 @@
           <t>['2.一般治疗操作费', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>2.一般治疗操作费</t>
-        </is>
-      </c>
+      <c r="C243" t="inlineStr"/>
       <c r="D243" t="n">
         <v>5.243261383588118</v>
       </c>
@@ -7929,7 +7185,7 @@
       </c>
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -7943,11 +7199,7 @@
           <t>['2.一般治疗操作费', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>2.一般治疗操作费</t>
-        </is>
-      </c>
+      <c r="C244" t="inlineStr"/>
       <c r="D244" t="n">
         <v>5.243261383588118</v>
       </c>
@@ -7958,7 +7210,7 @@
       </c>
       <c r="F244" t="inlineStr"/>
       <c r="G244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -7972,11 +7224,7 @@
           <t>['2.一般治疗操作费', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>2.一般治疗操作费</t>
-        </is>
-      </c>
+      <c r="C245" t="inlineStr"/>
       <c r="D245" t="n">
         <v>5.243261383588118</v>
       </c>
@@ -7987,7 +7235,7 @@
       </c>
       <c r="F245" t="inlineStr"/>
       <c r="G245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -8001,11 +7249,7 @@
           <t>['切口愈合等级', '2.一般治疗操作费', '手术及操作名称']</t>
         </is>
       </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>切口愈合等级</t>
-        </is>
-      </c>
+      <c r="C246" t="inlineStr"/>
       <c r="D246" t="n">
         <v>12.69045250879904</v>
       </c>
@@ -8020,7 +7264,7 @@
         </is>
       </c>
       <c r="G246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -8034,11 +7278,7 @@
           <t>['麻醉方式', '2.一般治疗操作费', '手术及操作名称']</t>
         </is>
       </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>麻醉方式</t>
-        </is>
-      </c>
+      <c r="C247" t="inlineStr"/>
       <c r="D247" t="n">
         <v>7.720300694663502</v>
       </c>
@@ -8053,7 +7293,7 @@
         </is>
       </c>
       <c r="G247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -8067,11 +7307,7 @@
           <t>['2.一般治疗操作费', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>2.一般治疗操作费</t>
-        </is>
-      </c>
+      <c r="C248" t="inlineStr"/>
       <c r="D248" t="n">
         <v>5.243261383588118</v>
       </c>
@@ -8082,7 +7318,7 @@
       </c>
       <c r="F248" t="inlineStr"/>
       <c r="G248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -8096,11 +7332,7 @@
           <t>['2.一般治疗操作费', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>2.一般治疗操作费</t>
-        </is>
-      </c>
+      <c r="C249" t="inlineStr"/>
       <c r="D249" t="n">
         <v>5.243261383588118</v>
       </c>
@@ -8111,7 +7343,7 @@
       </c>
       <c r="F249" t="inlineStr"/>
       <c r="G249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -8154,11 +7386,7 @@
           <t>['手术及操作名称', '手术及操作编码', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C251" t="inlineStr"/>
       <c r="D251" t="n">
         <v>6.86734992556722</v>
       </c>
@@ -8173,7 +7401,7 @@
         </is>
       </c>
       <c r="G251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -8187,11 +7415,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C252" t="inlineStr"/>
       <c r="D252" t="n">
         <v>8.501949048860009</v>
       </c>
@@ -8324,11 +7548,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>手术及操作编码</t>
-        </is>
-      </c>
+      <c r="C257" t="inlineStr"/>
       <c r="D257" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -8339,7 +7559,7 @@
       </c>
       <c r="F257" t="inlineStr"/>
       <c r="G257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -8353,11 +7573,7 @@
           <t>['切口愈合等级', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>切口愈合等级</t>
-        </is>
-      </c>
+      <c r="C258" t="inlineStr"/>
       <c r="D258" t="n">
         <v>12.69045250879904</v>
       </c>
@@ -8372,7 +7588,7 @@
         </is>
       </c>
       <c r="G258" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -8523,11 +7739,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C264" t="inlineStr"/>
       <c r="D264" t="n">
         <v>8.501949048860009</v>
       </c>
@@ -8542,7 +7754,7 @@
         </is>
       </c>
       <c r="G264" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -8585,11 +7797,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C266" t="inlineStr"/>
       <c r="D266" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -8600,7 +7808,7 @@
       </c>
       <c r="F266" t="inlineStr"/>
       <c r="G266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -8639,11 +7847,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C268" t="inlineStr"/>
       <c r="D268" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -8654,7 +7858,7 @@
       </c>
       <c r="F268" t="inlineStr"/>
       <c r="G268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -8693,11 +7897,7 @@
           <t>['切口愈合等级', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>切口愈合等级</t>
-        </is>
-      </c>
+      <c r="C270" t="inlineStr"/>
       <c r="D270" t="n">
         <v>12.69045250879904</v>
       </c>
@@ -8712,7 +7912,7 @@
         </is>
       </c>
       <c r="G270" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -8726,11 +7926,7 @@
           <t>['麻醉方式', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C271" t="inlineStr"/>
       <c r="D271" t="n">
         <v>7.720300694663502</v>
       </c>
@@ -8838,11 +8034,7 @@
           <t>['手术及操作名称', '手术及操作编码', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>手术及操作编码</t>
-        </is>
-      </c>
+      <c r="C275" t="inlineStr"/>
       <c r="D275" t="n">
         <v>6.86734992556722</v>
       </c>
@@ -8871,11 +8063,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C276" t="inlineStr"/>
       <c r="D276" t="n">
         <v>8.501949048860009</v>
       </c>
@@ -8890,7 +8078,7 @@
         </is>
       </c>
       <c r="G276" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -8933,11 +8121,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C278" t="inlineStr"/>
       <c r="D278" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -8948,7 +8132,7 @@
       </c>
       <c r="F278" t="inlineStr"/>
       <c r="G278" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -8987,11 +8171,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C280" t="inlineStr"/>
       <c r="D280" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -9002,7 +8182,7 @@
       </c>
       <c r="F280" t="inlineStr"/>
       <c r="G280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -9016,11 +8196,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C281" t="inlineStr"/>
       <c r="D281" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -9031,7 +8207,7 @@
       </c>
       <c r="F281" t="inlineStr"/>
       <c r="G281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -9045,11 +8221,7 @@
           <t>['切口愈合等级', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>切口愈合等级</t>
-        </is>
-      </c>
+      <c r="C282" t="inlineStr"/>
       <c r="D282" t="n">
         <v>12.69045250879904</v>
       </c>
@@ -9064,7 +8236,7 @@
         </is>
       </c>
       <c r="G282" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -9078,11 +8250,7 @@
           <t>['麻醉方式', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C283" t="inlineStr"/>
       <c r="D283" t="n">
         <v>7.720300694663502</v>
       </c>
@@ -9219,11 +8387,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C288" t="inlineStr"/>
       <c r="D288" t="n">
         <v>8.501949048860009</v>
       </c>
@@ -9356,11 +8520,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C293" t="inlineStr"/>
       <c r="D293" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -9371,7 +8531,7 @@
       </c>
       <c r="F293" t="inlineStr"/>
       <c r="G293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -9385,11 +8545,7 @@
           <t>['切口愈合等级', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>切口愈合等级</t>
-        </is>
-      </c>
+      <c r="C294" t="inlineStr"/>
       <c r="D294" t="n">
         <v>12.69045250879904</v>
       </c>
@@ -9404,7 +8560,7 @@
         </is>
       </c>
       <c r="G294" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -9418,11 +8574,7 @@
           <t>['麻醉方式', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C295" t="inlineStr"/>
       <c r="D295" t="n">
         <v>7.720300694663502</v>
       </c>
@@ -9530,11 +8682,7 @@
           <t>['手术及操作名称', '手术及操作编码', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>手术及操作编码</t>
-        </is>
-      </c>
+      <c r="C299" t="inlineStr"/>
       <c r="D299" t="n">
         <v>6.86734992556722</v>
       </c>
@@ -9563,11 +8711,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C300" t="inlineStr"/>
       <c r="D300" t="n">
         <v>8.501949048860009</v>
       </c>
@@ -9582,7 +8726,7 @@
         </is>
       </c>
       <c r="G300" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -9625,11 +8769,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C302" t="inlineStr"/>
       <c r="D302" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -9640,7 +8780,7 @@
       </c>
       <c r="F302" t="inlineStr"/>
       <c r="G302" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -9679,11 +8819,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C304" t="inlineStr"/>
       <c r="D304" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -9694,7 +8830,7 @@
       </c>
       <c r="F304" t="inlineStr"/>
       <c r="G304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -9733,11 +8869,7 @@
           <t>['切口愈合等级', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>切口愈合等级</t>
-        </is>
-      </c>
+      <c r="C306" t="inlineStr"/>
       <c r="D306" t="n">
         <v>12.69045250879904</v>
       </c>
@@ -9752,7 +8884,7 @@
         </is>
       </c>
       <c r="G306" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -9766,11 +8898,7 @@
           <t>['麻醉方式', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C307" t="inlineStr"/>
       <c r="D307" t="n">
         <v>7.720300694663502</v>
       </c>
@@ -9878,11 +9006,7 @@
           <t>['手术及操作名称', '手术及操作编码', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>手术及操作编码</t>
-        </is>
-      </c>
+      <c r="C311" t="inlineStr"/>
       <c r="D311" t="n">
         <v>6.86734992556722</v>
       </c>
@@ -9911,11 +9035,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C312" t="inlineStr"/>
       <c r="D312" t="n">
         <v>8.501949048860009</v>
       </c>
@@ -9930,7 +9050,7 @@
         </is>
       </c>
       <c r="G312" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -9973,11 +9093,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C314" t="inlineStr"/>
       <c r="D314" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -9988,7 +9104,7 @@
       </c>
       <c r="F314" t="inlineStr"/>
       <c r="G314" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -10027,11 +9143,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C316" t="inlineStr"/>
       <c r="D316" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -10042,7 +9154,7 @@
       </c>
       <c r="F316" t="inlineStr"/>
       <c r="G316" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -10056,11 +9168,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C317" t="inlineStr"/>
       <c r="D317" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -10071,7 +9179,7 @@
       </c>
       <c r="F317" t="inlineStr"/>
       <c r="G317" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -10085,11 +9193,7 @@
           <t>['切口愈合等级', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>切口愈合等级</t>
-        </is>
-      </c>
+      <c r="C318" t="inlineStr"/>
       <c r="D318" t="n">
         <v>12.69045250879904</v>
       </c>
@@ -10104,7 +9208,7 @@
         </is>
       </c>
       <c r="G318" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -10118,11 +9222,7 @@
           <t>['麻醉方式', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C319" t="inlineStr"/>
       <c r="D319" t="n">
         <v>7.720300694663502</v>
       </c>
@@ -10151,11 +9251,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C320" t="inlineStr"/>
       <c r="D320" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -10166,7 +9262,7 @@
       </c>
       <c r="F320" t="inlineStr"/>
       <c r="G320" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -10396,11 +9492,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C329" t="inlineStr"/>
       <c r="D329" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -10411,7 +9503,7 @@
       </c>
       <c r="F329" t="inlineStr"/>
       <c r="G329" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
@@ -10425,11 +9517,7 @@
           <t>['切口愈合等级', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>切口愈合等级</t>
-        </is>
-      </c>
+      <c r="C330" t="inlineStr"/>
       <c r="D330" t="n">
         <v>12.69045250879904</v>
       </c>
@@ -10444,7 +9532,7 @@
         </is>
       </c>
       <c r="G330" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
@@ -10458,11 +9546,7 @@
           <t>['麻醉方式', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C331" t="inlineStr"/>
       <c r="D331" t="n">
         <v>7.720300694663502</v>
       </c>
@@ -10491,11 +9575,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C332" t="inlineStr"/>
       <c r="D332" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -10506,7 +9586,7 @@
       </c>
       <c r="F332" t="inlineStr"/>
       <c r="G332" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -10574,11 +9654,7 @@
           <t>['手术及操作名称', '10.手术治疗费', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C335" t="inlineStr"/>
       <c r="D335" t="n">
         <v>6.86734992556722</v>
       </c>
@@ -10593,7 +9669,7 @@
         </is>
       </c>
       <c r="G335" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -10607,11 +9683,7 @@
           <t>['手术及操作日期', '10.手术治疗费', '手术及操作名称']</t>
         </is>
       </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C336" t="inlineStr"/>
       <c r="D336" t="n">
         <v>8.501949048860009</v>
       </c>
@@ -10626,7 +9698,7 @@
         </is>
       </c>
       <c r="G336" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
@@ -10640,11 +9712,7 @@
           <t>['手术级别', '10.手术治疗费', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>手术级别</t>
-        </is>
-      </c>
+      <c r="C337" t="inlineStr"/>
       <c r="D337" t="n">
         <v>7.523945444003003</v>
       </c>
@@ -10659,7 +9727,7 @@
         </is>
       </c>
       <c r="G337" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
@@ -10673,11 +9741,7 @@
           <t>['10.手术治疗费', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>10.手术治疗费</t>
-        </is>
-      </c>
+      <c r="C338" t="inlineStr"/>
       <c r="D338" t="n">
         <v>5.928963949249054</v>
       </c>
@@ -10688,7 +9752,7 @@
       </c>
       <c r="F338" t="inlineStr"/>
       <c r="G338" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -10702,11 +9766,7 @@
           <t>['10.手术治疗费', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>10.手术治疗费</t>
-        </is>
-      </c>
+      <c r="C339" t="inlineStr"/>
       <c r="D339" t="n">
         <v>5.928963949249054</v>
       </c>
@@ -10717,7 +9777,7 @@
       </c>
       <c r="F339" t="inlineStr"/>
       <c r="G339" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -10731,11 +9791,7 @@
           <t>['10.手术治疗费', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>10.手术治疗费</t>
-        </is>
-      </c>
+      <c r="C340" t="inlineStr"/>
       <c r="D340" t="n">
         <v>5.928963949249054</v>
       </c>
@@ -10746,7 +9802,7 @@
       </c>
       <c r="F340" t="inlineStr"/>
       <c r="G340" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
@@ -10760,11 +9816,7 @@
           <t>['10.手术治疗费', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>10.手术治疗费</t>
-        </is>
-      </c>
+      <c r="C341" t="inlineStr"/>
       <c r="D341" t="n">
         <v>5.928963949249054</v>
       </c>
@@ -10775,7 +9827,7 @@
       </c>
       <c r="F341" t="inlineStr"/>
       <c r="G341" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
@@ -10789,11 +9841,7 @@
           <t>['切口愈合等级', '10.手术治疗费', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>切口愈合等级</t>
-        </is>
-      </c>
+      <c r="C342" t="inlineStr"/>
       <c r="D342" t="n">
         <v>12.69045250879904</v>
       </c>
@@ -10808,7 +9856,7 @@
         </is>
       </c>
       <c r="G342" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -10822,11 +9870,7 @@
           <t>['麻醉方式', '10.手术治疗费', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>麻醉方式</t>
-        </is>
-      </c>
+      <c r="C343" t="inlineStr"/>
       <c r="D343" t="n">
         <v>7.720300694663502</v>
       </c>
@@ -10841,7 +9885,7 @@
         </is>
       </c>
       <c r="G343" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
@@ -10855,11 +9899,7 @@
           <t>['10.手术治疗费', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>10.手术治疗费</t>
-        </is>
-      </c>
+      <c r="C344" t="inlineStr"/>
       <c r="D344" t="n">
         <v>5.928963949249054</v>
       </c>
@@ -10870,7 +9910,7 @@
       </c>
       <c r="F344" t="inlineStr"/>
       <c r="G344" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
@@ -10884,11 +9924,7 @@
           <t>['10.手术治疗费', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>10.手术治疗费</t>
-        </is>
-      </c>
+      <c r="C345" t="inlineStr"/>
       <c r="D345" t="n">
         <v>5.928963949249054</v>
       </c>
@@ -10899,7 +9935,7 @@
       </c>
       <c r="F345" t="inlineStr"/>
       <c r="G345" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -10971,11 +10007,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C348" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C348" t="inlineStr"/>
       <c r="D348" t="n">
         <v>8.501949048860009</v>
       </c>
@@ -10990,7 +10022,7 @@
         </is>
       </c>
       <c r="G348" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
@@ -11033,11 +10065,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C350" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C350" t="inlineStr"/>
       <c r="D350" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -11048,7 +10076,7 @@
       </c>
       <c r="F350" t="inlineStr"/>
       <c r="G350" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
@@ -11087,11 +10115,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C352" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C352" t="inlineStr"/>
       <c r="D352" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -11102,7 +10126,7 @@
       </c>
       <c r="F352" t="inlineStr"/>
       <c r="G352" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -11141,11 +10165,7 @@
           <t>['切口愈合等级', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C354" t="inlineStr">
-        <is>
-          <t>切口愈合等级</t>
-        </is>
-      </c>
+      <c r="C354" t="inlineStr"/>
       <c r="D354" t="n">
         <v>12.69045250879904</v>
       </c>
@@ -11160,7 +10180,7 @@
         </is>
       </c>
       <c r="G354" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
@@ -11311,11 +10331,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C360" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C360" t="inlineStr"/>
       <c r="D360" t="n">
         <v>8.501949048860009</v>
       </c>
@@ -11330,7 +10346,7 @@
         </is>
       </c>
       <c r="G360" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
@@ -11373,11 +10389,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C362" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C362" t="inlineStr"/>
       <c r="D362" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -11388,7 +10400,7 @@
       </c>
       <c r="F362" t="inlineStr"/>
       <c r="G362" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
@@ -11427,11 +10439,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C364" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C364" t="inlineStr"/>
       <c r="D364" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -11442,7 +10450,7 @@
       </c>
       <c r="F364" t="inlineStr"/>
       <c r="G364" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
@@ -11456,11 +10464,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C365" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C365" t="inlineStr"/>
       <c r="D365" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -11471,7 +10475,7 @@
       </c>
       <c r="F365" t="inlineStr"/>
       <c r="G365" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
@@ -11485,11 +10489,7 @@
           <t>['切口愈合等级', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C366" t="inlineStr">
-        <is>
-          <t>切口愈合等级</t>
-        </is>
-      </c>
+      <c r="C366" t="inlineStr"/>
       <c r="D366" t="n">
         <v>12.69045250879904</v>
       </c>
@@ -11504,7 +10504,7 @@
         </is>
       </c>
       <c r="G366" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
@@ -11518,11 +10518,7 @@
           <t>['麻醉方式', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C367" t="inlineStr">
-        <is>
-          <t>麻醉方式</t>
-        </is>
-      </c>
+      <c r="C367" t="inlineStr"/>
       <c r="D367" t="n">
         <v>7.720300694663502</v>
       </c>
@@ -11537,7 +10533,7 @@
         </is>
       </c>
       <c r="G367" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
@@ -11817,11 +10813,7 @@
           <t>['切口愈合等级', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C378" t="inlineStr">
-        <is>
-          <t>切口愈合等级</t>
-        </is>
-      </c>
+      <c r="C378" t="inlineStr"/>
       <c r="D378" t="n">
         <v>12.69045250879904</v>
       </c>
@@ -11836,7 +10828,7 @@
         </is>
       </c>
       <c r="G378" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
@@ -11850,11 +10842,7 @@
           <t>['麻醉方式', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C379" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C379" t="inlineStr"/>
       <c r="D379" t="n">
         <v>7.720300694663502</v>
       </c>
@@ -11991,11 +10979,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C384" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C384" t="inlineStr"/>
       <c r="D384" t="n">
         <v>8.501949048860009</v>
       </c>
@@ -12010,7 +10994,7 @@
         </is>
       </c>
       <c r="G384" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
@@ -12153,11 +11137,7 @@
           <t>['切口愈合等级', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C390" t="inlineStr">
-        <is>
-          <t>切口愈合等级</t>
-        </is>
-      </c>
+      <c r="C390" t="inlineStr"/>
       <c r="D390" t="n">
         <v>12.69045250879904</v>
       </c>
@@ -12172,7 +11152,7 @@
         </is>
       </c>
       <c r="G390" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
@@ -12323,11 +11303,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C396" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C396" t="inlineStr"/>
       <c r="D396" t="n">
         <v>8.501949048860009</v>
       </c>
@@ -12342,7 +11318,7 @@
         </is>
       </c>
       <c r="G396" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
@@ -12356,11 +11332,7 @@
           <t>['手术级别', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C397" t="inlineStr">
-        <is>
-          <t>手术级别</t>
-        </is>
-      </c>
+      <c r="C397" t="inlineStr"/>
       <c r="D397" t="n">
         <v>7.523945444003003</v>
       </c>
@@ -12375,7 +11347,7 @@
         </is>
       </c>
       <c r="G397" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
@@ -12464,11 +11436,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C401" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C401" t="inlineStr"/>
       <c r="D401" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -12479,7 +11447,7 @@
       </c>
       <c r="F401" t="inlineStr"/>
       <c r="G401" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
@@ -12522,11 +11490,7 @@
           <t>['麻醉方式', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C403" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C403" t="inlineStr"/>
       <c r="D403" t="n">
         <v>7.720300694663502</v>
       </c>
@@ -12580,11 +11544,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C405" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C405" t="inlineStr"/>
       <c r="D405" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -12595,7 +11555,7 @@
       </c>
       <c r="F405" t="inlineStr"/>
       <c r="G405" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
@@ -12696,11 +11656,7 @@
           <t>['手术级别', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C409" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C409" t="inlineStr"/>
       <c r="D409" t="n">
         <v>7.523945444003003</v>
       </c>
@@ -12829,11 +11785,7 @@
           <t>['切口愈合等级', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C414" t="inlineStr">
-        <is>
-          <t>切口愈合等级</t>
-        </is>
-      </c>
+      <c r="C414" t="inlineStr"/>
       <c r="D414" t="n">
         <v>12.69045250879904</v>
       </c>
@@ -12848,7 +11800,7 @@
         </is>
       </c>
       <c r="G414" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
@@ -12941,11 +11893,7 @@
           <t>['手术及操作编码', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C418" t="inlineStr">
-        <is>
-          <t>手术及操作编码</t>
-        </is>
-      </c>
+      <c r="C418" t="inlineStr"/>
       <c r="D418" t="n">
         <v>7.062845094681138</v>
       </c>
@@ -12960,7 +11908,7 @@
         </is>
       </c>
       <c r="G418" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
@@ -13003,11 +11951,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C420" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C420" t="inlineStr"/>
       <c r="D420" t="n">
         <v>8.501949048860009</v>
       </c>
@@ -13065,11 +12009,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C422" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C422" t="inlineStr"/>
       <c r="D422" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -13080,7 +12020,7 @@
       </c>
       <c r="F422" t="inlineStr"/>
       <c r="G422" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
@@ -13335,11 +12275,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C432" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C432" t="inlineStr"/>
       <c r="D432" t="n">
         <v>8.501949048860009</v>
       </c>
@@ -13354,7 +12290,7 @@
         </is>
       </c>
       <c r="G432" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
@@ -13368,11 +12304,7 @@
           <t>['手术级别', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C433" t="inlineStr">
-        <is>
-          <t>手术级别</t>
-        </is>
-      </c>
+      <c r="C433" t="inlineStr"/>
       <c r="D433" t="n">
         <v>7.523945444003003</v>
       </c>
@@ -13387,7 +12319,7 @@
         </is>
       </c>
       <c r="G433" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
@@ -13401,11 +12333,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C434" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C434" t="inlineStr"/>
       <c r="D434" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -13416,7 +12344,7 @@
       </c>
       <c r="F434" t="inlineStr"/>
       <c r="G434" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
@@ -13480,11 +12408,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C437" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C437" t="inlineStr"/>
       <c r="D437" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -13495,7 +12419,7 @@
       </c>
       <c r="F437" t="inlineStr"/>
       <c r="G437" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
@@ -13509,11 +12433,7 @@
           <t>['切口愈合等级', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C438" t="inlineStr">
-        <is>
-          <t>切口愈合等级</t>
-        </is>
-      </c>
+      <c r="C438" t="inlineStr"/>
       <c r="D438" t="n">
         <v>12.69045250879904</v>
       </c>
@@ -13528,7 +12448,7 @@
         </is>
       </c>
       <c r="G438" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439">
@@ -13542,11 +12462,7 @@
           <t>['麻醉方式', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C439" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C439" t="inlineStr"/>
       <c r="D439" t="n">
         <v>7.720300694663502</v>
       </c>
@@ -13683,11 +12599,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C444" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C444" t="inlineStr"/>
       <c r="D444" t="n">
         <v>8.501949048860009</v>
       </c>
@@ -13702,7 +12614,7 @@
         </is>
       </c>
       <c r="G444" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
@@ -13745,11 +12657,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C446" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C446" t="inlineStr"/>
       <c r="D446" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -13760,7 +12668,7 @@
       </c>
       <c r="F446" t="inlineStr"/>
       <c r="G446" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
@@ -13849,11 +12757,7 @@
           <t>['切口愈合等级', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C450" t="inlineStr">
-        <is>
-          <t>切口愈合等级</t>
-        </is>
-      </c>
+      <c r="C450" t="inlineStr"/>
       <c r="D450" t="n">
         <v>12.69045250879904</v>
       </c>
@@ -13868,7 +12772,7 @@
         </is>
       </c>
       <c r="G450" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451">
@@ -13990,11 +12894,7 @@
           <t>['手术及操作名称', '手术及操作编码', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C455" t="inlineStr">
-        <is>
-          <t>手术及操作编码</t>
-        </is>
-      </c>
+      <c r="C455" t="inlineStr"/>
       <c r="D455" t="n">
         <v>6.86734992556722</v>
       </c>
@@ -14023,11 +12923,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C456" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C456" t="inlineStr"/>
       <c r="D456" t="n">
         <v>8.501949048860009</v>
       </c>
@@ -14042,7 +12938,7 @@
         </is>
       </c>
       <c r="G456" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457">
@@ -14085,11 +12981,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C458" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C458" t="inlineStr"/>
       <c r="D458" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -14100,7 +12992,7 @@
       </c>
       <c r="F458" t="inlineStr"/>
       <c r="G458" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459">
@@ -14139,11 +13031,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C460" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C460" t="inlineStr"/>
       <c r="D460" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -14154,7 +13042,7 @@
       </c>
       <c r="F460" t="inlineStr"/>
       <c r="G460" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461">
@@ -14168,11 +13056,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C461" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C461" t="inlineStr"/>
       <c r="D461" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -14183,7 +13067,7 @@
       </c>
       <c r="F461" t="inlineStr"/>
       <c r="G461" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">
@@ -14197,11 +13081,7 @@
           <t>['切口愈合等级', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C462" t="inlineStr">
-        <is>
-          <t>切口愈合等级</t>
-        </is>
-      </c>
+      <c r="C462" t="inlineStr"/>
       <c r="D462" t="n">
         <v>12.69045250879904</v>
       </c>
@@ -14216,7 +13096,7 @@
         </is>
       </c>
       <c r="G462" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463">
@@ -14230,11 +13110,7 @@
           <t>['麻醉方式', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C463" t="inlineStr">
-        <is>
-          <t>麻醉方式</t>
-        </is>
-      </c>
+      <c r="C463" t="inlineStr"/>
       <c r="D463" t="n">
         <v>7.720300694663502</v>
       </c>
@@ -14249,7 +13125,7 @@
         </is>
       </c>
       <c r="G463" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
@@ -14371,11 +13247,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C468" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C468" t="inlineStr"/>
       <c r="D468" t="n">
         <v>8.501949048860009</v>
       </c>
@@ -14390,7 +13262,7 @@
         </is>
       </c>
       <c r="G468" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
@@ -14433,11 +13305,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C470" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C470" t="inlineStr"/>
       <c r="D470" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -14448,7 +13316,7 @@
       </c>
       <c r="F470" t="inlineStr"/>
       <c r="G470" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
@@ -14512,11 +13380,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C473" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C473" t="inlineStr"/>
       <c r="D473" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -14527,7 +13391,7 @@
       </c>
       <c r="F473" t="inlineStr"/>
       <c r="G473" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
@@ -14541,11 +13405,7 @@
           <t>['切口愈合等级', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C474" t="inlineStr">
-        <is>
-          <t>切口愈合等级</t>
-        </is>
-      </c>
+      <c r="C474" t="inlineStr"/>
       <c r="D474" t="n">
         <v>12.69045250879904</v>
       </c>
@@ -14560,7 +13420,7 @@
         </is>
       </c>
       <c r="G474" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
@@ -14574,11 +13434,7 @@
           <t>['麻醉方式', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C475" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C475" t="inlineStr"/>
       <c r="D475" t="n">
         <v>7.720300694663502</v>
       </c>
@@ -14657,11 +13513,7 @@
           <t>['手术及操作编码', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C478" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C478" t="inlineStr"/>
       <c r="D478" t="n">
         <v>7.062845094681138</v>
       </c>
@@ -14877,11 +13729,7 @@
           <t>['切口愈合等级', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C486" t="inlineStr">
-        <is>
-          <t>切口愈合等级</t>
-        </is>
-      </c>
+      <c r="C486" t="inlineStr"/>
       <c r="D486" t="n">
         <v>12.69045250879904</v>
       </c>
@@ -14896,7 +13744,7 @@
         </is>
       </c>
       <c r="G486" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
@@ -14989,11 +13837,7 @@
           <t>['手术及操作编码', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C490" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C490" t="inlineStr"/>
       <c r="D490" t="n">
         <v>7.062845094681138</v>
       </c>
@@ -15022,11 +13866,7 @@
           <t>['手术及操作名称', '手术及操作编码', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C491" t="inlineStr">
-        <is>
-          <t>手术及操作编码</t>
-        </is>
-      </c>
+      <c r="C491" t="inlineStr"/>
       <c r="D491" t="n">
         <v>6.86734992556722</v>
       </c>
@@ -15055,11 +13895,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C492" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C492" t="inlineStr"/>
       <c r="D492" t="n">
         <v>8.501949048860009</v>
       </c>
@@ -15074,7 +13910,7 @@
         </is>
       </c>
       <c r="G492" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
@@ -15275,11 +14111,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C500" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C500" t="inlineStr"/>
       <c r="D500" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -15290,7 +14122,7 @@
       </c>
       <c r="F500" t="inlineStr"/>
       <c r="G500" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501">
@@ -15329,11 +14161,7 @@
           <t>['手术及操作编码', '24.其他费：', '手术及操作名称']</t>
         </is>
       </c>
-      <c r="C502" t="inlineStr">
-        <is>
-          <t>手术及操作编码</t>
-        </is>
-      </c>
+      <c r="C502" t="inlineStr"/>
       <c r="D502" t="n">
         <v>7.062845094681138</v>
       </c>
@@ -15348,7 +14176,7 @@
         </is>
       </c>
       <c r="G502" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503">
@@ -15391,11 +14219,7 @@
           <t>['手术及操作日期', '24.其他费：', '手术及操作名称']</t>
         </is>
       </c>
-      <c r="C504" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C504" t="inlineStr"/>
       <c r="D504" t="n">
         <v>8.501949048860009</v>
       </c>
@@ -15410,7 +14234,7 @@
         </is>
       </c>
       <c r="G504" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
@@ -15424,11 +14248,7 @@
           <t>['手术级别', '24.其他费：', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C505" t="inlineStr">
-        <is>
-          <t>手术级别</t>
-        </is>
-      </c>
+      <c r="C505" t="inlineStr"/>
       <c r="D505" t="n">
         <v>7.523945444003003</v>
       </c>
@@ -15443,7 +14263,7 @@
         </is>
       </c>
       <c r="G505" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
@@ -15457,11 +14277,7 @@
           <t>['24.其他费：', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C506" t="inlineStr">
-        <is>
-          <t>24.其他费：</t>
-        </is>
-      </c>
+      <c r="C506" t="inlineStr"/>
       <c r="D506" t="n">
         <v>5.537517229096013</v>
       </c>
@@ -15472,7 +14288,7 @@
       </c>
       <c r="F506" t="inlineStr"/>
       <c r="G506" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
@@ -15511,11 +14327,7 @@
           <t>['24.其他费：', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C508" t="inlineStr">
-        <is>
-          <t>24.其他费：</t>
-        </is>
-      </c>
+      <c r="C508" t="inlineStr"/>
       <c r="D508" t="n">
         <v>5.537517229096013</v>
       </c>
@@ -15526,7 +14338,7 @@
       </c>
       <c r="F508" t="inlineStr"/>
       <c r="G508" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
@@ -15540,11 +14352,7 @@
           <t>['24.其他费：', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C509" t="inlineStr">
-        <is>
-          <t>24.其他费：</t>
-        </is>
-      </c>
+      <c r="C509" t="inlineStr"/>
       <c r="D509" t="n">
         <v>5.537517229096013</v>
       </c>
@@ -15555,7 +14363,7 @@
       </c>
       <c r="F509" t="inlineStr"/>
       <c r="G509" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510">
@@ -15569,11 +14377,7 @@
           <t>['切口愈合等级', '24.其他费：', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C510" t="inlineStr">
-        <is>
-          <t>切口愈合等级</t>
-        </is>
-      </c>
+      <c r="C510" t="inlineStr"/>
       <c r="D510" t="n">
         <v>12.69045250879904</v>
       </c>
@@ -15588,7 +14392,7 @@
         </is>
       </c>
       <c r="G510" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511">
@@ -15602,11 +14406,7 @@
           <t>['麻醉方式', '24.其他费：', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C511" t="inlineStr">
-        <is>
-          <t>麻醉方式</t>
-        </is>
-      </c>
+      <c r="C511" t="inlineStr"/>
       <c r="D511" t="n">
         <v>7.720300694663502</v>
       </c>
@@ -15621,7 +14421,7 @@
         </is>
       </c>
       <c r="G511" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512">
@@ -15635,11 +14435,7 @@
           <t>['24.其他费：', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C512" t="inlineStr">
-        <is>
-          <t>24.其他费：</t>
-        </is>
-      </c>
+      <c r="C512" t="inlineStr"/>
       <c r="D512" t="n">
         <v>5.537517229096013</v>
       </c>
@@ -15650,7 +14446,7 @@
       </c>
       <c r="F512" t="inlineStr"/>
       <c r="G512" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513">
@@ -15664,11 +14460,7 @@
           <t>['24.其他费：', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C513" t="inlineStr">
-        <is>
-          <t>24.其他费：</t>
-        </is>
-      </c>
+      <c r="C513" t="inlineStr"/>
       <c r="D513" t="n">
         <v>5.537517229096013</v>
       </c>
@@ -15679,7 +14471,7 @@
       </c>
       <c r="F513" t="inlineStr"/>
       <c r="G513" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514">
@@ -15693,11 +14485,7 @@
           <t>['手术及操作编码', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C514" t="inlineStr">
-        <is>
-          <t>手术及操作编码</t>
-        </is>
-      </c>
+      <c r="C514" t="inlineStr"/>
       <c r="D514" t="n">
         <v>7.062845094681138</v>
       </c>
@@ -15712,7 +14500,7 @@
         </is>
       </c>
       <c r="G514" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
@@ -15726,11 +14514,7 @@
           <t>['手术及操作名称', '手术及操作编码', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C515" t="inlineStr">
-        <is>
-          <t>手术及操作编码</t>
-        </is>
-      </c>
+      <c r="C515" t="inlineStr"/>
       <c r="D515" t="n">
         <v>6.86734992556722</v>
       </c>
@@ -15759,11 +14543,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C516" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C516" t="inlineStr"/>
       <c r="D516" t="n">
         <v>8.501949048860009</v>
       </c>
@@ -15778,7 +14558,7 @@
         </is>
       </c>
       <c r="G516" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
@@ -15821,11 +14601,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C518" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C518" t="inlineStr"/>
       <c r="D518" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -15836,7 +14612,7 @@
       </c>
       <c r="F518" t="inlineStr"/>
       <c r="G518" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519">
@@ -15925,11 +14701,7 @@
           <t>['切口愈合等级', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C522" t="inlineStr">
-        <is>
-          <t>切口愈合等级</t>
-        </is>
-      </c>
+      <c r="C522" t="inlineStr"/>
       <c r="D522" t="n">
         <v>12.69045250879904</v>
       </c>
@@ -15944,7 +14716,7 @@
         </is>
       </c>
       <c r="G522" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
@@ -15958,11 +14730,7 @@
           <t>['麻醉方式', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C523" t="inlineStr">
-        <is>
-          <t>麻醉方式</t>
-        </is>
-      </c>
+      <c r="C523" t="inlineStr"/>
       <c r="D523" t="n">
         <v>7.720300694663502</v>
       </c>
@@ -15977,7 +14745,7 @@
         </is>
       </c>
       <c r="G523" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
@@ -16070,11 +14838,7 @@
           <t>['手术及操作名称', '手术及操作编码', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C527" t="inlineStr">
-        <is>
-          <t>手术及操作编码</t>
-        </is>
-      </c>
+      <c r="C527" t="inlineStr"/>
       <c r="D527" t="n">
         <v>6.86734992556722</v>
       </c>
@@ -16103,11 +14867,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C528" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C528" t="inlineStr"/>
       <c r="D528" t="n">
         <v>8.501949048860009</v>
       </c>
@@ -16122,7 +14882,7 @@
         </is>
       </c>
       <c r="G528" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
@@ -16215,11 +14975,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C532" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C532" t="inlineStr"/>
       <c r="D532" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -16230,7 +14986,7 @@
       </c>
       <c r="F532" t="inlineStr"/>
       <c r="G532" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533">
@@ -16269,11 +15025,7 @@
           <t>['切口愈合等级', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C534" t="inlineStr">
-        <is>
-          <t>切口愈合等级</t>
-        </is>
-      </c>
+      <c r="C534" t="inlineStr"/>
       <c r="D534" t="n">
         <v>12.69045250879904</v>
       </c>
@@ -16288,7 +15040,7 @@
         </is>
       </c>
       <c r="G534" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535">
@@ -16302,11 +15054,7 @@
           <t>['麻醉方式', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C535" t="inlineStr">
-        <is>
-          <t>麻醉方式</t>
-        </is>
-      </c>
+      <c r="C535" t="inlineStr"/>
       <c r="D535" t="n">
         <v>7.720300694663502</v>
       </c>
@@ -16321,7 +15069,7 @@
         </is>
       </c>
       <c r="G535" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536">
@@ -16335,11 +15083,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C536" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C536" t="inlineStr"/>
       <c r="D536" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -16350,7 +15094,7 @@
       </c>
       <c r="F536" t="inlineStr"/>
       <c r="G536" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537">
@@ -16389,11 +15133,7 @@
           <t>['手术及操作编码', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C538" t="inlineStr">
-        <is>
-          <t>手术及操作编码</t>
-        </is>
-      </c>
+      <c r="C538" t="inlineStr"/>
       <c r="D538" t="n">
         <v>7.062845094681138</v>
       </c>
@@ -16408,7 +15148,7 @@
         </is>
       </c>
       <c r="G538" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539">
@@ -16451,11 +15191,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C540" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C540" t="inlineStr"/>
       <c r="D540" t="n">
         <v>8.501949048860009</v>
       </c>
@@ -16484,11 +15220,7 @@
           <t>['手术级别', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C541" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C541" t="inlineStr"/>
       <c r="D541" t="n">
         <v>7.523945444003003</v>
       </c>
@@ -16517,11 +15249,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C542" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C542" t="inlineStr"/>
       <c r="D542" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -16532,7 +15260,7 @@
       </c>
       <c r="F542" t="inlineStr"/>
       <c r="G542" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543">
@@ -16650,11 +15378,7 @@
           <t>['麻醉方式', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C547" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C547" t="inlineStr"/>
       <c r="D547" t="n">
         <v>7.720300694663502</v>
       </c>
@@ -16683,11 +15407,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C548" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C548" t="inlineStr"/>
       <c r="D548" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -16698,7 +15418,7 @@
       </c>
       <c r="F548" t="inlineStr"/>
       <c r="G548" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
@@ -16766,11 +15486,7 @@
           <t>['手术及操作名称', '手术及操作编码', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C551" t="inlineStr">
-        <is>
-          <t>手术及操作编码</t>
-        </is>
-      </c>
+      <c r="C551" t="inlineStr"/>
       <c r="D551" t="n">
         <v>6.86734992556722</v>
       </c>
@@ -16799,11 +15515,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C552" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C552" t="inlineStr"/>
       <c r="D552" t="n">
         <v>8.501949048860009</v>
       </c>
@@ -16818,7 +15530,7 @@
         </is>
       </c>
       <c r="G552" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
@@ -16861,11 +15573,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C554" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C554" t="inlineStr"/>
       <c r="D554" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -16876,7 +15584,7 @@
       </c>
       <c r="F554" t="inlineStr"/>
       <c r="G554" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555">
@@ -16994,11 +15702,7 @@
           <t>['麻醉方式', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C559" t="inlineStr">
-        <is>
-          <t>麻醉方式</t>
-        </is>
-      </c>
+      <c r="C559" t="inlineStr"/>
       <c r="D559" t="n">
         <v>7.720300694663502</v>
       </c>
@@ -17013,7 +15717,7 @@
         </is>
       </c>
       <c r="G559" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
@@ -17077,11 +15781,7 @@
           <t>['手术及操作编码', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C562" t="inlineStr">
-        <is>
-          <t>手术及操作编码</t>
-        </is>
-      </c>
+      <c r="C562" t="inlineStr"/>
       <c r="D562" t="n">
         <v>7.062845094681138</v>
       </c>
@@ -17096,7 +15796,7 @@
         </is>
       </c>
       <c r="G562" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563">
@@ -17110,11 +15810,7 @@
           <t>['手术及操作名称', '手术及操作编码', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C563" t="inlineStr">
-        <is>
-          <t>手术及操作编码</t>
-        </is>
-      </c>
+      <c r="C563" t="inlineStr"/>
       <c r="D563" t="n">
         <v>6.86734992556722</v>
       </c>
@@ -17143,11 +15839,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C564" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C564" t="inlineStr"/>
       <c r="D564" t="n">
         <v>8.501949048860009</v>
       </c>
@@ -17162,7 +15854,7 @@
         </is>
       </c>
       <c r="G564" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565">
@@ -17255,11 +15947,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C568" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C568" t="inlineStr"/>
       <c r="D568" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -17270,7 +15958,7 @@
       </c>
       <c r="F568" t="inlineStr"/>
       <c r="G568" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569">
@@ -17309,11 +15997,7 @@
           <t>['切口愈合等级', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C570" t="inlineStr">
-        <is>
-          <t>切口愈合等级</t>
-        </is>
-      </c>
+      <c r="C570" t="inlineStr"/>
       <c r="D570" t="n">
         <v>12.69045250879904</v>
       </c>
@@ -17328,7 +16012,7 @@
         </is>
       </c>
       <c r="G570" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571">
@@ -17342,11 +16026,7 @@
           <t>['麻醉方式', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C571" t="inlineStr">
-        <is>
-          <t>麻醉方式</t>
-        </is>
-      </c>
+      <c r="C571" t="inlineStr"/>
       <c r="D571" t="n">
         <v>7.720300694663502</v>
       </c>
@@ -17361,7 +16041,7 @@
         </is>
       </c>
       <c r="G571" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572">
@@ -17400,11 +16080,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C573" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C573" t="inlineStr"/>
       <c r="D573" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -17415,7 +16091,7 @@
       </c>
       <c r="F573" t="inlineStr"/>
       <c r="G573" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574">
@@ -17429,11 +16105,7 @@
           <t>['手术及操作编码', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C574" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C574" t="inlineStr"/>
       <c r="D574" t="n">
         <v>7.062845094681138</v>
       </c>
@@ -17491,11 +16163,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C576" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C576" t="inlineStr"/>
       <c r="D576" t="n">
         <v>8.501949048860009</v>
       </c>
@@ -17510,7 +16178,7 @@
         </is>
       </c>
       <c r="G576" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577">
@@ -17553,11 +16221,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C578" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C578" t="inlineStr"/>
       <c r="D578" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -17568,7 +16232,7 @@
       </c>
       <c r="F578" t="inlineStr"/>
       <c r="G578" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579">
@@ -17607,11 +16271,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C580" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C580" t="inlineStr"/>
       <c r="D580" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -17622,7 +16282,7 @@
       </c>
       <c r="F580" t="inlineStr"/>
       <c r="G580" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581">
@@ -17661,11 +16321,7 @@
           <t>['切口愈合等级', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C582" t="inlineStr">
-        <is>
-          <t>切口愈合等级</t>
-        </is>
-      </c>
+      <c r="C582" t="inlineStr"/>
       <c r="D582" t="n">
         <v>12.69045250879904</v>
       </c>
@@ -17680,7 +16336,7 @@
         </is>
       </c>
       <c r="G582" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
@@ -17694,11 +16350,7 @@
           <t>['麻醉方式', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C583" t="inlineStr">
-        <is>
-          <t>麻醉方式</t>
-        </is>
-      </c>
+      <c r="C583" t="inlineStr"/>
       <c r="D583" t="n">
         <v>7.720300694663502</v>
       </c>
@@ -17713,7 +16365,7 @@
         </is>
       </c>
       <c r="G583" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584">
@@ -17777,11 +16429,7 @@
           <t>['手术及操作编码', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C586" t="inlineStr">
-        <is>
-          <t>手术及操作编码</t>
-        </is>
-      </c>
+      <c r="C586" t="inlineStr"/>
       <c r="D586" t="n">
         <v>7.062845094681138</v>
       </c>
@@ -17796,7 +16444,7 @@
         </is>
       </c>
       <c r="G586" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587">
@@ -17810,11 +16458,7 @@
           <t>['手术及操作名称', '手术及操作编码', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C587" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C587" t="inlineStr"/>
       <c r="D587" t="n">
         <v>6.86734992556722</v>
       </c>
@@ -17829,7 +16473,7 @@
         </is>
       </c>
       <c r="G587" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588">
@@ -17843,11 +16487,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C588" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C588" t="inlineStr"/>
       <c r="D588" t="n">
         <v>8.501949048860009</v>
       </c>
@@ -17862,7 +16502,7 @@
         </is>
       </c>
       <c r="G588" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589">
@@ -17905,11 +16545,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C590" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C590" t="inlineStr"/>
       <c r="D590" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -17920,7 +16556,7 @@
       </c>
       <c r="F590" t="inlineStr"/>
       <c r="G590" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
@@ -17984,11 +16620,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C593" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C593" t="inlineStr"/>
       <c r="D593" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -17999,7 +16631,7 @@
       </c>
       <c r="F593" t="inlineStr"/>
       <c r="G593" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594">
@@ -18013,11 +16645,7 @@
           <t>['切口愈合等级', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C594" t="inlineStr">
-        <is>
-          <t>切口愈合等级</t>
-        </is>
-      </c>
+      <c r="C594" t="inlineStr"/>
       <c r="D594" t="n">
         <v>12.69045250879904</v>
       </c>
@@ -18032,7 +16660,7 @@
         </is>
       </c>
       <c r="G594" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595">
@@ -18046,11 +16674,7 @@
           <t>['麻醉方式', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C595" t="inlineStr">
-        <is>
-          <t>麻醉方式</t>
-        </is>
-      </c>
+      <c r="C595" t="inlineStr"/>
       <c r="D595" t="n">
         <v>7.720300694663502</v>
       </c>
@@ -18065,7 +16689,7 @@
         </is>
       </c>
       <c r="G595" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596">
@@ -18129,11 +16753,7 @@
           <t>['手术及操作编码', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C598" t="inlineStr">
-        <is>
-          <t>手术及操作编码</t>
-        </is>
-      </c>
+      <c r="C598" t="inlineStr"/>
       <c r="D598" t="n">
         <v>7.062845094681138</v>
       </c>
@@ -18148,7 +16768,7 @@
         </is>
       </c>
       <c r="G598" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599">
@@ -18191,11 +16811,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C600" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C600" t="inlineStr"/>
       <c r="D600" t="n">
         <v>8.501949048860009</v>
       </c>
@@ -18210,7 +16826,7 @@
         </is>
       </c>
       <c r="G600" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601">
@@ -18224,11 +16840,7 @@
           <t>['手术级别', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C601" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C601" t="inlineStr"/>
       <c r="D601" t="n">
         <v>7.523945444003003</v>
       </c>
@@ -18307,11 +16919,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C604" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C604" t="inlineStr"/>
       <c r="D604" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -18322,7 +16930,7 @@
       </c>
       <c r="F604" t="inlineStr"/>
       <c r="G604" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605">
@@ -18361,11 +16969,7 @@
           <t>['切口愈合等级', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C606" t="inlineStr">
-        <is>
-          <t>切口愈合等级</t>
-        </is>
-      </c>
+      <c r="C606" t="inlineStr"/>
       <c r="D606" t="n">
         <v>12.69045250879904</v>
       </c>
@@ -18380,7 +16984,7 @@
         </is>
       </c>
       <c r="G606" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607">
@@ -18473,11 +17077,7 @@
           <t>['手术及操作编码', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C610" t="inlineStr">
-        <is>
-          <t>手术及操作编码</t>
-        </is>
-      </c>
+      <c r="C610" t="inlineStr"/>
       <c r="D610" t="n">
         <v>7.062845094681138</v>
       </c>
@@ -18492,7 +17092,7 @@
         </is>
       </c>
       <c r="G610" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611">
@@ -18535,11 +17135,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C612" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C612" t="inlineStr"/>
       <c r="D612" t="n">
         <v>8.501949048860009</v>
       </c>
@@ -18568,11 +17164,7 @@
           <t>['手术级别', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C613" t="inlineStr">
-        <is>
-          <t>手术级别</t>
-        </is>
-      </c>
+      <c r="C613" t="inlineStr"/>
       <c r="D613" t="n">
         <v>7.523945444003003</v>
       </c>
@@ -18587,7 +17179,7 @@
         </is>
       </c>
       <c r="G613" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614">
@@ -18676,11 +17268,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C617" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C617" t="inlineStr"/>
       <c r="D617" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -18691,7 +17279,7 @@
       </c>
       <c r="F617" t="inlineStr"/>
       <c r="G617" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618">
@@ -18705,11 +17293,7 @@
           <t>['切口愈合等级', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C618" t="inlineStr">
-        <is>
-          <t>切口愈合等级</t>
-        </is>
-      </c>
+      <c r="C618" t="inlineStr"/>
       <c r="D618" t="n">
         <v>12.69045250879904</v>
       </c>
@@ -18724,7 +17308,7 @@
         </is>
       </c>
       <c r="G618" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619">
@@ -18738,11 +17322,7 @@
           <t>['麻醉方式', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C619" t="inlineStr">
-        <is>
-          <t>麻醉方式</t>
-        </is>
-      </c>
+      <c r="C619" t="inlineStr"/>
       <c r="D619" t="n">
         <v>7.720300694663502</v>
       </c>
@@ -18757,7 +17337,7 @@
         </is>
       </c>
       <c r="G619" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620">
@@ -18821,11 +17401,7 @@
           <t>['手术及操作编码', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C622" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C622" t="inlineStr"/>
       <c r="D622" t="n">
         <v>7.062845094681138</v>
       </c>
@@ -18941,11 +17517,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C626" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C626" t="inlineStr"/>
       <c r="D626" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -18956,7 +17528,7 @@
       </c>
       <c r="F626" t="inlineStr"/>
       <c r="G626" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627">
@@ -19020,11 +17592,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C629" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C629" t="inlineStr"/>
       <c r="D629" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -19035,7 +17603,7 @@
       </c>
       <c r="F629" t="inlineStr"/>
       <c r="G629" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630">
@@ -19049,11 +17617,7 @@
           <t>['切口愈合等级', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C630" t="inlineStr">
-        <is>
-          <t>切口愈合等级</t>
-        </is>
-      </c>
+      <c r="C630" t="inlineStr"/>
       <c r="D630" t="n">
         <v>12.69045250879904</v>
       </c>
@@ -19068,7 +17632,7 @@
         </is>
       </c>
       <c r="G630" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631">
@@ -19082,11 +17646,7 @@
           <t>['麻醉方式', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C631" t="inlineStr">
-        <is>
-          <t>麻醉方式</t>
-        </is>
-      </c>
+      <c r="C631" t="inlineStr"/>
       <c r="D631" t="n">
         <v>7.720300694663502</v>
       </c>
@@ -19101,7 +17661,7 @@
         </is>
       </c>
       <c r="G631" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632">
@@ -19223,11 +17783,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C636" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C636" t="inlineStr"/>
       <c r="D636" t="n">
         <v>8.501949048860009</v>
       </c>
@@ -19242,7 +17798,7 @@
         </is>
       </c>
       <c r="G636" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637">
@@ -19256,11 +17812,7 @@
           <t>['手术级别', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C637" t="inlineStr">
-        <is>
-          <t>手术级别</t>
-        </is>
-      </c>
+      <c r="C637" t="inlineStr"/>
       <c r="D637" t="n">
         <v>7.523945444003003</v>
       </c>
@@ -19275,7 +17827,7 @@
         </is>
       </c>
       <c r="G637" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638">
@@ -19289,11 +17841,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C638" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C638" t="inlineStr"/>
       <c r="D638" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -19304,7 +17852,7 @@
       </c>
       <c r="F638" t="inlineStr"/>
       <c r="G638" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639">
@@ -19368,11 +17916,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C641" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C641" t="inlineStr"/>
       <c r="D641" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -19383,7 +17927,7 @@
       </c>
       <c r="F641" t="inlineStr"/>
       <c r="G641" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642">
@@ -19397,11 +17941,7 @@
           <t>['切口愈合等级', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C642" t="inlineStr">
-        <is>
-          <t>切口愈合等级</t>
-        </is>
-      </c>
+      <c r="C642" t="inlineStr"/>
       <c r="D642" t="n">
         <v>12.69045250879904</v>
       </c>
@@ -19416,7 +17956,7 @@
         </is>
       </c>
       <c r="G642" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643">
@@ -19430,11 +17970,7 @@
           <t>['麻醉方式', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C643" t="inlineStr">
-        <is>
-          <t>麻醉方式</t>
-        </is>
-      </c>
+      <c r="C643" t="inlineStr"/>
       <c r="D643" t="n">
         <v>7.720300694663502</v>
       </c>
@@ -19449,7 +17985,7 @@
         </is>
       </c>
       <c r="G643" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644">
@@ -19463,11 +17999,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C644" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C644" t="inlineStr"/>
       <c r="D644" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -19478,7 +18010,7 @@
       </c>
       <c r="F644" t="inlineStr"/>
       <c r="G644" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645">
@@ -19517,11 +18049,7 @@
           <t>['手术及操作编码', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C646" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C646" t="inlineStr"/>
       <c r="D646" t="n">
         <v>7.062845094681138</v>
       </c>
@@ -19579,11 +18107,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C648" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C648" t="inlineStr"/>
       <c r="D648" t="n">
         <v>8.501949048860009</v>
       </c>
@@ -19612,11 +18136,7 @@
           <t>['手术级别', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C649" t="inlineStr">
-        <is>
-          <t>手术级别</t>
-        </is>
-      </c>
+      <c r="C649" t="inlineStr"/>
       <c r="D649" t="n">
         <v>7.523945444003003</v>
       </c>
@@ -19631,7 +18151,7 @@
         </is>
       </c>
       <c r="G649" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650">
@@ -19645,11 +18165,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C650" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C650" t="inlineStr"/>
       <c r="D650" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -19660,7 +18176,7 @@
       </c>
       <c r="F650" t="inlineStr"/>
       <c r="G650" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651">
@@ -19699,11 +18215,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C652" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C652" t="inlineStr"/>
       <c r="D652" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -19714,7 +18226,7 @@
       </c>
       <c r="F652" t="inlineStr"/>
       <c r="G652" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653">
@@ -19753,11 +18265,7 @@
           <t>['切口愈合等级', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C654" t="inlineStr">
-        <is>
-          <t>切口愈合等级</t>
-        </is>
-      </c>
+      <c r="C654" t="inlineStr"/>
       <c r="D654" t="n">
         <v>12.69045250879904</v>
       </c>
@@ -19772,7 +18280,7 @@
         </is>
       </c>
       <c r="G654" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655">
@@ -19786,11 +18294,7 @@
           <t>['麻醉方式', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C655" t="inlineStr">
-        <is>
-          <t>麻醉方式</t>
-        </is>
-      </c>
+      <c r="C655" t="inlineStr"/>
       <c r="D655" t="n">
         <v>7.720300694663502</v>
       </c>
@@ -19805,7 +18309,7 @@
         </is>
       </c>
       <c r="G655" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656">
@@ -19869,11 +18373,7 @@
           <t>['手术及操作编码', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C658" t="inlineStr">
-        <is>
-          <t>手术及操作编码</t>
-        </is>
-      </c>
+      <c r="C658" t="inlineStr"/>
       <c r="D658" t="n">
         <v>7.062845094681138</v>
       </c>
@@ -19888,7 +18388,7 @@
         </is>
       </c>
       <c r="G658" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659">
@@ -19931,11 +18431,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C660" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C660" t="inlineStr"/>
       <c r="D660" t="n">
         <v>8.501949048860009</v>
       </c>
@@ -19950,7 +18446,7 @@
         </is>
       </c>
       <c r="G660" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661">
@@ -20068,11 +18564,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C665" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C665" t="inlineStr"/>
       <c r="D665" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -20083,7 +18575,7 @@
       </c>
       <c r="F665" t="inlineStr"/>
       <c r="G665" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666">
@@ -20126,11 +18618,7 @@
           <t>['麻醉方式', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C667" t="inlineStr">
-        <is>
-          <t>麻醉方式</t>
-        </is>
-      </c>
+      <c r="C667" t="inlineStr"/>
       <c r="D667" t="n">
         <v>7.720300694663502</v>
       </c>
@@ -20145,7 +18633,7 @@
         </is>
       </c>
       <c r="G667" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668">
@@ -20209,11 +18697,7 @@
           <t>['手术及操作编码', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C670" t="inlineStr">
-        <is>
-          <t>手术及操作编码</t>
-        </is>
-      </c>
+      <c r="C670" t="inlineStr"/>
       <c r="D670" t="n">
         <v>7.062845094681138</v>
       </c>
@@ -20228,7 +18712,7 @@
         </is>
       </c>
       <c r="G670" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671">
@@ -20242,11 +18726,7 @@
           <t>['手术及操作名称', '手术及操作编码', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C671" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C671" t="inlineStr"/>
       <c r="D671" t="n">
         <v>6.86734992556722</v>
       </c>
@@ -20261,7 +18741,7 @@
         </is>
       </c>
       <c r="G671" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672">
@@ -20275,11 +18755,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C672" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C672" t="inlineStr"/>
       <c r="D672" t="n">
         <v>8.501949048860009</v>
       </c>
@@ -20294,7 +18770,7 @@
         </is>
       </c>
       <c r="G672" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673">
@@ -20437,11 +18913,7 @@
           <t>['切口愈合等级', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C678" t="inlineStr">
-        <is>
-          <t>切口愈合等级</t>
-        </is>
-      </c>
+      <c r="C678" t="inlineStr"/>
       <c r="D678" t="n">
         <v>12.69045250879904</v>
       </c>
@@ -20456,7 +18928,7 @@
         </is>
       </c>
       <c r="G678" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679">
@@ -20470,11 +18942,7 @@
           <t>['麻醉方式', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C679" t="inlineStr">
-        <is>
-          <t>麻醉方式</t>
-        </is>
-      </c>
+      <c r="C679" t="inlineStr"/>
       <c r="D679" t="n">
         <v>7.720300694663502</v>
       </c>
@@ -20489,7 +18957,7 @@
         </is>
       </c>
       <c r="G679" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680">
@@ -20611,11 +19079,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C684" t="inlineStr">
-        <is>
-          <t>手术及操作名称</t>
-        </is>
-      </c>
+      <c r="C684" t="inlineStr"/>
       <c r="D684" t="n">
         <v>8.501949048860009</v>
       </c>
@@ -20723,11 +19187,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C688" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C688" t="inlineStr"/>
       <c r="D688" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -20738,7 +19198,7 @@
       </c>
       <c r="F688" t="inlineStr"/>
       <c r="G688" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689">
@@ -20752,11 +19212,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C689" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C689" t="inlineStr"/>
       <c r="D689" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -20767,7 +19223,7 @@
       </c>
       <c r="F689" t="inlineStr"/>
       <c r="G689" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690">
@@ -20781,11 +19237,7 @@
           <t>['切口愈合等级', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C690" t="inlineStr">
-        <is>
-          <t>切口愈合等级</t>
-        </is>
-      </c>
+      <c r="C690" t="inlineStr"/>
       <c r="D690" t="n">
         <v>12.69045250879904</v>
       </c>
@@ -20800,7 +19252,7 @@
         </is>
       </c>
       <c r="G690" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691">
@@ -20814,11 +19266,7 @@
           <t>['麻醉方式', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C691" t="inlineStr">
-        <is>
-          <t>麻醉方式</t>
-        </is>
-      </c>
+      <c r="C691" t="inlineStr"/>
       <c r="D691" t="n">
         <v>7.720300694663502</v>
       </c>
@@ -20833,7 +19281,7 @@
         </is>
       </c>
       <c r="G691" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692">
@@ -20897,11 +19345,7 @@
           <t>['手术及操作编码', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C694" t="inlineStr">
-        <is>
-          <t>手术及操作编码</t>
-        </is>
-      </c>
+      <c r="C694" t="inlineStr"/>
       <c r="D694" t="n">
         <v>7.062845094681138</v>
       </c>
@@ -20916,7 +19360,7 @@
         </is>
       </c>
       <c r="G694" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695">
@@ -20959,11 +19403,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C696" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C696" t="inlineStr"/>
       <c r="D696" t="n">
         <v>8.501949048860009</v>
       </c>
@@ -20978,7 +19418,7 @@
         </is>
       </c>
       <c r="G696" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697">
@@ -21021,11 +19461,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C698" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C698" t="inlineStr"/>
       <c r="D698" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -21036,7 +19472,7 @@
       </c>
       <c r="F698" t="inlineStr"/>
       <c r="G698" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699">
@@ -21075,11 +19511,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C700" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C700" t="inlineStr"/>
       <c r="D700" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -21090,7 +19522,7 @@
       </c>
       <c r="F700" t="inlineStr"/>
       <c r="G700" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701">
@@ -21104,11 +19536,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C701" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C701" t="inlineStr"/>
       <c r="D701" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -21119,7 +19547,7 @@
       </c>
       <c r="F701" t="inlineStr"/>
       <c r="G701" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702">
@@ -21133,11 +19561,7 @@
           <t>['切口愈合等级', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C702" t="inlineStr">
-        <is>
-          <t>切口愈合等级</t>
-        </is>
-      </c>
+      <c r="C702" t="inlineStr"/>
       <c r="D702" t="n">
         <v>12.69045250879904</v>
       </c>
@@ -21152,7 +19576,7 @@
         </is>
       </c>
       <c r="G702" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703">
@@ -21166,11 +19590,7 @@
           <t>['麻醉方式', '手术及操作名称', '手术及操作日期']</t>
         </is>
       </c>
-      <c r="C703" t="inlineStr">
-        <is>
-          <t>麻醉方式</t>
-        </is>
-      </c>
+      <c r="C703" t="inlineStr"/>
       <c r="D703" t="n">
         <v>7.720300694663502</v>
       </c>
@@ -21185,7 +19605,7 @@
         </is>
       </c>
       <c r="G703" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704">
@@ -21199,11 +19619,7 @@
           <t>['手术及操作日期', '手术及操作名称', '手术及操作编码']</t>
         </is>
       </c>
-      <c r="C704" t="inlineStr">
-        <is>
-          <t>手术及操作日期</t>
-        </is>
-      </c>
+      <c r="C704" t="inlineStr"/>
       <c r="D704" t="n">
         <v>4.720167512589088</v>
       </c>
@@ -21214,7 +19630,7 @@
       </c>
       <c r="F704" t="inlineStr"/>
       <c r="G704" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705">
@@ -21303,11 +19719,7 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C708" t="inlineStr">
-        <is>
-          <t>24.其他费：</t>
-        </is>
-      </c>
+      <c r="C708" t="inlineStr"/>
       <c r="D708" t="n">
         <v>0</v>
       </c>
@@ -21318,7 +19730,7 @@
       </c>
       <c r="F708" t="inlineStr"/>
       <c r="G708" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709">
@@ -21407,11 +19819,7 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C712" t="inlineStr">
-        <is>
-          <t>24.其他费：</t>
-        </is>
-      </c>
+      <c r="C712" t="inlineStr"/>
       <c r="D712" t="n">
         <v>0</v>
       </c>
@@ -21422,7 +19830,7 @@
       </c>
       <c r="F712" t="inlineStr"/>
       <c r="G712" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713">
@@ -21436,11 +19844,7 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C713" t="inlineStr">
-        <is>
-          <t>24.其他费：</t>
-        </is>
-      </c>
+      <c r="C713" t="inlineStr"/>
       <c r="D713" t="n">
         <v>0</v>
       </c>
@@ -21451,7 +19855,7 @@
       </c>
       <c r="F713" t="inlineStr"/>
       <c r="G713" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714">
@@ -21465,11 +19869,7 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C714" t="inlineStr">
-        <is>
-          <t>24.其他费：</t>
-        </is>
-      </c>
+      <c r="C714" t="inlineStr"/>
       <c r="D714" t="n">
         <v>0</v>
       </c>
@@ -21480,7 +19880,7 @@
       </c>
       <c r="F714" t="inlineStr"/>
       <c r="G714" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715">
@@ -21519,11 +19919,7 @@
           <t>['门（急）诊诊断名称', '门（急）诊诊断疾病编码', '24.其他费：']</t>
         </is>
       </c>
-      <c r="C716" t="inlineStr">
-        <is>
-          <t>门（急）诊诊断名称</t>
-        </is>
-      </c>
+      <c r="C716" t="inlineStr"/>
       <c r="D716" t="n">
         <v>4.898009142996432</v>
       </c>
@@ -21534,7 +19930,7 @@
       </c>
       <c r="F716" t="inlineStr"/>
       <c r="G716" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717">
@@ -21548,11 +19944,7 @@
           <t>['门（急）诊诊断名称', '门（急）诊诊断疾病编码', '2.一般治疗操作费']</t>
         </is>
       </c>
-      <c r="C717" t="inlineStr">
-        <is>
-          <t>门（急）诊诊断疾病编码</t>
-        </is>
-      </c>
+      <c r="C717" t="inlineStr"/>
       <c r="D717" t="n">
         <v>4.898009142996432</v>
       </c>
@@ -21563,7 +19955,7 @@
       </c>
       <c r="F717" t="inlineStr"/>
       <c r="G717" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718">
@@ -21577,11 +19969,7 @@
           <t>['门（急）诊诊断名称', '门（急）诊诊断疾病编码', '3.护理费']</t>
         </is>
       </c>
-      <c r="C718" t="inlineStr">
-        <is>
-          <t>3.护理费</t>
-        </is>
-      </c>
+      <c r="C718" t="inlineStr"/>
       <c r="D718" t="n">
         <v>4.898009142996432</v>
       </c>
@@ -21592,7 +19980,7 @@
       </c>
       <c r="F718" t="inlineStr"/>
       <c r="G718" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719">
@@ -21631,11 +20019,7 @@
           <t>['门（急）诊诊断名称', '门（急）诊诊断疾病编码', '5.病理诊断费']</t>
         </is>
       </c>
-      <c r="C720" t="inlineStr">
-        <is>
-          <t>门（急）诊诊断名称</t>
-        </is>
-      </c>
+      <c r="C720" t="inlineStr"/>
       <c r="D720" t="n">
         <v>4.898009142996432</v>
       </c>
@@ -21646,7 +20030,7 @@
       </c>
       <c r="F720" t="inlineStr"/>
       <c r="G720" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721">
@@ -21685,11 +20069,7 @@
           <t>['门（急）诊诊断名称', '门（急）诊诊断疾病编码', '其他诊断入院病情']</t>
         </is>
       </c>
-      <c r="C722" t="inlineStr">
-        <is>
-          <t>门（急）诊诊断名称</t>
-        </is>
-      </c>
+      <c r="C722" t="inlineStr"/>
       <c r="D722" t="n">
         <v>4.898009142996432</v>
       </c>
@@ -21700,7 +20080,7 @@
       </c>
       <c r="F722" t="inlineStr"/>
       <c r="G722" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723">
@@ -21714,11 +20094,7 @@
           <t>['门（急）诊诊断名称', '门（急）诊诊断疾病编码', '其他诊断入院病情']</t>
         </is>
       </c>
-      <c r="C723" t="inlineStr">
-        <is>
-          <t>门（急）诊诊断名称</t>
-        </is>
-      </c>
+      <c r="C723" t="inlineStr"/>
       <c r="D723" t="n">
         <v>4.898009142996432</v>
       </c>
@@ -21729,7 +20105,7 @@
       </c>
       <c r="F723" t="inlineStr"/>
       <c r="G723" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724">
@@ -21743,11 +20119,7 @@
           <t>['门（急）诊诊断名称', '门（急）诊诊断疾病编码', '其他诊断入院病情']</t>
         </is>
       </c>
-      <c r="C724" t="inlineStr">
-        <is>
-          <t>门（急）诊诊断名称</t>
-        </is>
-      </c>
+      <c r="C724" t="inlineStr"/>
       <c r="D724" t="n">
         <v>4.898009142996432</v>
       </c>
@@ -21758,7 +20130,7 @@
       </c>
       <c r="F724" t="inlineStr"/>
       <c r="G724" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725">
@@ -21772,11 +20144,7 @@
           <t>['门（急）诊诊断名称', '门（急）诊诊断疾病编码', '其他诊断入院病情']</t>
         </is>
       </c>
-      <c r="C725" t="inlineStr">
-        <is>
-          <t>门（急）诊诊断名称</t>
-        </is>
-      </c>
+      <c r="C725" t="inlineStr"/>
       <c r="D725" t="n">
         <v>4.898009142996432</v>
       </c>
@@ -21787,7 +20155,7 @@
       </c>
       <c r="F725" t="inlineStr"/>
       <c r="G725" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726">
@@ -21801,11 +20169,7 @@
           <t>['门（急）诊诊断名称', '门（急）诊诊断疾病编码', '其他诊断入院病情']</t>
         </is>
       </c>
-      <c r="C726" t="inlineStr">
-        <is>
-          <t>门（急）诊诊断名称</t>
-        </is>
-      </c>
+      <c r="C726" t="inlineStr"/>
       <c r="D726" t="n">
         <v>4.898009142996432</v>
       </c>
@@ -21816,7 +20180,7 @@
       </c>
       <c r="F726" t="inlineStr"/>
       <c r="G726" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727">
@@ -21830,11 +20194,7 @@
           <t>['门（急）诊诊断名称', '门（急）诊诊断疾病编码', '其他诊断入院病情']</t>
         </is>
       </c>
-      <c r="C727" t="inlineStr">
-        <is>
-          <t>门（急）诊诊断名称</t>
-        </is>
-      </c>
+      <c r="C727" t="inlineStr"/>
       <c r="D727" t="n">
         <v>4.898009142996432</v>
       </c>
@@ -21845,7 +20205,7 @@
       </c>
       <c r="F727" t="inlineStr"/>
       <c r="G727" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728">
@@ -21884,11 +20244,7 @@
           <t>['重症监护室名称', '进重症监护室时间', '入住重症监护室情况']</t>
         </is>
       </c>
-      <c r="C729" t="inlineStr">
-        <is>
-          <t>重症监护室名称</t>
-        </is>
-      </c>
+      <c r="C729" t="inlineStr"/>
       <c r="D729" t="n">
         <v>8.157831256412891</v>
       </c>
@@ -21903,7 +20259,7 @@
         </is>
       </c>
       <c r="G729" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730">
@@ -21917,11 +20273,7 @@
           <t>['出重症监护室时间', '进重症监护室时间', '重症监护室名称']</t>
         </is>
       </c>
-      <c r="C730" t="inlineStr">
-        <is>
-          <t>出重症监护室时间</t>
-        </is>
-      </c>
+      <c r="C730" t="inlineStr"/>
       <c r="D730" t="n">
         <v>8.373711871057729</v>
       </c>
@@ -21950,11 +20302,7 @@
           <t>['出重症监护室时间', '进重症监护室时间', '重症监护室名称']</t>
         </is>
       </c>
-      <c r="C731" t="inlineStr">
-        <is>
-          <t>出重症监护室时间</t>
-        </is>
-      </c>
+      <c r="C731" t="inlineStr"/>
       <c r="D731" t="n">
         <v>8.373711871057729</v>
       </c>
@@ -21969,7 +20317,7 @@
         </is>
       </c>
       <c r="G731" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732">
@@ -21983,11 +20331,7 @@
           <t>['重症监护室名称', '进重症监护室时间', '入住重症监护室情况']</t>
         </is>
       </c>
-      <c r="C732" t="inlineStr">
-        <is>
-          <t>重症监护室名称</t>
-        </is>
-      </c>
+      <c r="C732" t="inlineStr"/>
       <c r="D732" t="n">
         <v>8.157831256412891</v>
       </c>
@@ -22002,7 +20346,7 @@
         </is>
       </c>
       <c r="G732" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733">
@@ -22016,11 +20360,7 @@
           <t>['出重症监护室时间', '进重症监护室时间', '重症监护室名称']</t>
         </is>
       </c>
-      <c r="C733" t="inlineStr">
-        <is>
-          <t>出重症监护室时间</t>
-        </is>
-      </c>
+      <c r="C733" t="inlineStr"/>
       <c r="D733" t="n">
         <v>8.373711871057729</v>
       </c>
@@ -22049,11 +20389,7 @@
           <t>['出重症监护室时间', '进重症监护室时间', '重症监护室名称']</t>
         </is>
       </c>
-      <c r="C734" t="inlineStr">
-        <is>
-          <t>出重症监护室时间</t>
-        </is>
-      </c>
+      <c r="C734" t="inlineStr"/>
       <c r="D734" t="n">
         <v>8.373711871057729</v>
       </c>
@@ -22068,7 +20404,7 @@
         </is>
       </c>
       <c r="G734" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735">
@@ -22082,11 +20418,7 @@
           <t>['重症监护室名称', '进重症监护室时间', '入住重症监护室情况']</t>
         </is>
       </c>
-      <c r="C735" t="inlineStr">
-        <is>
-          <t>重症监护室名称</t>
-        </is>
-      </c>
+      <c r="C735" t="inlineStr"/>
       <c r="D735" t="n">
         <v>8.157831256412891</v>
       </c>
@@ -22101,7 +20433,7 @@
         </is>
       </c>
       <c r="G735" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736">
@@ -22115,11 +20447,7 @@
           <t>['出重症监护室时间', '进重症监护室时间', '重症监护室名称']</t>
         </is>
       </c>
-      <c r="C736" t="inlineStr">
-        <is>
-          <t>出重症监护室时间</t>
-        </is>
-      </c>
+      <c r="C736" t="inlineStr"/>
       <c r="D736" t="n">
         <v>8.373711871057729</v>
       </c>
@@ -22148,11 +20476,7 @@
           <t>['出重症监护室时间', '进重症监护室时间', '重症监护室名称']</t>
         </is>
       </c>
-      <c r="C737" t="inlineStr">
-        <is>
-          <t>出重症监护室时间</t>
-        </is>
-      </c>
+      <c r="C737" t="inlineStr"/>
       <c r="D737" t="n">
         <v>8.373711871057729</v>
       </c>
@@ -22167,7 +20491,7 @@
         </is>
       </c>
       <c r="G737" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738">
@@ -22181,11 +20505,7 @@
           <t>['重症监护室名称', '进重症监护室时间', '入住重症监护室情况']</t>
         </is>
       </c>
-      <c r="C738" t="inlineStr">
-        <is>
-          <t>重症监护室名称</t>
-        </is>
-      </c>
+      <c r="C738" t="inlineStr"/>
       <c r="D738" t="n">
         <v>8.157831256412891</v>
       </c>
@@ -22200,7 +20520,7 @@
         </is>
       </c>
       <c r="G738" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739">
@@ -22214,11 +20534,7 @@
           <t>['出重症监护室时间', '进重症监护室时间', '重症监护室名称']</t>
         </is>
       </c>
-      <c r="C739" t="inlineStr">
-        <is>
-          <t>出重症监护室时间</t>
-        </is>
-      </c>
+      <c r="C739" t="inlineStr"/>
       <c r="D739" t="n">
         <v>8.373711871057729</v>
       </c>
@@ -22247,11 +20563,7 @@
           <t>['出重症监护室时间', '进重症监护室时间', '重症监护室名称']</t>
         </is>
       </c>
-      <c r="C740" t="inlineStr">
-        <is>
-          <t>出重症监护室时间</t>
-        </is>
-      </c>
+      <c r="C740" t="inlineStr"/>
       <c r="D740" t="n">
         <v>8.373711871057729</v>
       </c>
@@ -22266,7 +20578,7 @@
         </is>
       </c>
       <c r="G740" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741">
@@ -22280,11 +20592,7 @@
           <t>['重症监护室名称', '进重症监护室时间', '入住重症监护室情况']</t>
         </is>
       </c>
-      <c r="C741" t="inlineStr">
-        <is>
-          <t>重症监护室名称</t>
-        </is>
-      </c>
+      <c r="C741" t="inlineStr"/>
       <c r="D741" t="n">
         <v>8.157831256412891</v>
       </c>
@@ -22299,7 +20607,7 @@
         </is>
       </c>
       <c r="G741" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742">
@@ -22313,11 +20621,7 @@
           <t>['出重症监护室时间', '进重症监护室时间', '重症监护室名称']</t>
         </is>
       </c>
-      <c r="C742" t="inlineStr">
-        <is>
-          <t>出重症监护室时间</t>
-        </is>
-      </c>
+      <c r="C742" t="inlineStr"/>
       <c r="D742" t="n">
         <v>8.373711871057729</v>
       </c>
@@ -22346,11 +20650,7 @@
           <t>['出重症监护室时间', '进重症监护室时间', '重症监护室名称']</t>
         </is>
       </c>
-      <c r="C743" t="inlineStr">
-        <is>
-          <t>出重症监护室时间</t>
-        </is>
-      </c>
+      <c r="C743" t="inlineStr"/>
       <c r="D743" t="n">
         <v>8.373711871057729</v>
       </c>
@@ -22365,7 +20665,7 @@
         </is>
       </c>
       <c r="G743" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744">
@@ -22379,11 +20679,7 @@
           <t>['住院总费用', '住院总费用其中自付金额', '出院31天再住院计划目的']</t>
         </is>
       </c>
-      <c r="C744" t="inlineStr">
-        <is>
-          <t>住院总费用</t>
-        </is>
-      </c>
+      <c r="C744" t="inlineStr"/>
       <c r="D744" t="n">
         <v>7.361210514606193</v>
       </c>
@@ -22398,7 +20694,7 @@
         </is>
       </c>
       <c r="G744" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745">
@@ -22412,11 +20708,7 @@
           <t>['住院总费用其中自付金额', '住院总费用', '其中：手术费']</t>
         </is>
       </c>
-      <c r="C745" t="inlineStr">
-        <is>
-          <t>住院总费用其中自付金额</t>
-        </is>
-      </c>
+      <c r="C745" t="inlineStr"/>
       <c r="D745" t="n">
         <v>14.20167904754014</v>
       </c>
@@ -22431,7 +20723,7 @@
         </is>
       </c>
       <c r="G745" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746">
@@ -22445,11 +20737,7 @@
           <t>['1.一般医疗服务费', '医疗付费方式', '2.一般治疗操作费']</t>
         </is>
       </c>
-      <c r="C746" t="inlineStr">
-        <is>
-          <t>1.一般医疗服务费</t>
-        </is>
-      </c>
+      <c r="C746" t="inlineStr"/>
       <c r="D746" t="n">
         <v>12.60693908201749</v>
       </c>
@@ -22464,7 +20752,7 @@
         </is>
       </c>
       <c r="G746" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747">
@@ -22478,11 +20766,7 @@
           <t>['2.一般治疗操作费', '1.一般医疗服务费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C747" t="inlineStr">
-        <is>
-          <t>1.一般医疗服务费</t>
-        </is>
-      </c>
+      <c r="C747" t="inlineStr"/>
       <c r="D747" t="n">
         <v>11.58973994558945</v>
       </c>
@@ -22511,11 +20795,7 @@
           <t>['3.护理费', '16.血费', '12.中医治疗费']</t>
         </is>
       </c>
-      <c r="C748" t="inlineStr">
-        <is>
-          <t>12.中医治疗费</t>
-        </is>
-      </c>
+      <c r="C748" t="inlineStr"/>
       <c r="D748" t="n">
         <v>8.791325789090994</v>
       </c>
@@ -22573,11 +20853,7 @@
           <t>['5.病理诊断费', '病理诊断名称', '病理号']</t>
         </is>
       </c>
-      <c r="C750" t="inlineStr">
-        <is>
-          <t>5.病理诊断费</t>
-        </is>
-      </c>
+      <c r="C750" t="inlineStr"/>
       <c r="D750" t="n">
         <v>8.137788350625065</v>
       </c>
@@ -22592,7 +20868,7 @@
         </is>
       </c>
       <c r="G750" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751">
@@ -22606,11 +20882,7 @@
           <t>['6.实验室诊断费', '7.影像学诊断费', '5.病理诊断费']</t>
         </is>
       </c>
-      <c r="C751" t="inlineStr">
-        <is>
-          <t>6.实验室诊断费</t>
-        </is>
-      </c>
+      <c r="C751" t="inlineStr"/>
       <c r="D751" t="n">
         <v>8.974889729526645</v>
       </c>
@@ -22625,7 +20897,7 @@
         </is>
       </c>
       <c r="G751" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752">
@@ -22639,11 +20911,7 @@
           <t>['7.影像学诊断费', '6.实验室诊断费', '5.病理诊断费']</t>
         </is>
       </c>
-      <c r="C752" t="inlineStr">
-        <is>
-          <t>7.影像学诊断费</t>
-        </is>
-      </c>
+      <c r="C752" t="inlineStr"/>
       <c r="D752" t="n">
         <v>8.974889729526645</v>
       </c>
@@ -22658,7 +20926,7 @@
         </is>
       </c>
       <c r="G752" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753">
@@ -22672,11 +20940,7 @@
           <t>['8.临床诊断项目费', '9.非手术治疗项目费', '其中：临床物理治疗费']</t>
         </is>
       </c>
-      <c r="C753" t="inlineStr">
-        <is>
-          <t>8.临床诊断项目费</t>
-        </is>
-      </c>
+      <c r="C753" t="inlineStr"/>
       <c r="D753" t="n">
         <v>10.39604323820424</v>
       </c>
@@ -22691,7 +20955,7 @@
         </is>
       </c>
       <c r="G753" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754">
@@ -22705,11 +20969,7 @@
           <t>['9.非手术治疗项目费', '8.临床诊断项目费', '14.中成药费']</t>
         </is>
       </c>
-      <c r="C754" t="inlineStr">
-        <is>
-          <t>9.非手术治疗项目费</t>
-        </is>
-      </c>
+      <c r="C754" t="inlineStr"/>
       <c r="D754" t="n">
         <v>10.87499271975106</v>
       </c>
@@ -22724,7 +20984,7 @@
         </is>
       </c>
       <c r="G754" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755">
@@ -22738,11 +20998,7 @@
           <t>['其中：临床物理治疗费', '其中：手术费', '其中：麻醉费']</t>
         </is>
       </c>
-      <c r="C755" t="inlineStr">
-        <is>
-          <t>其中：临床物理治疗费</t>
-        </is>
-      </c>
+      <c r="C755" t="inlineStr"/>
       <c r="D755" t="n">
         <v>13.15634183562802</v>
       </c>
@@ -22757,7 +21013,7 @@
         </is>
       </c>
       <c r="G755" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756">
@@ -22771,11 +21027,7 @@
           <t>['10.手术治疗费', '12.中医治疗费', '手术级别']</t>
         </is>
       </c>
-      <c r="C756" t="inlineStr">
-        <is>
-          <t>10.手术治疗费</t>
-        </is>
-      </c>
+      <c r="C756" t="inlineStr"/>
       <c r="D756" t="n">
         <v>9.080854290534898</v>
       </c>
@@ -22790,7 +21042,7 @@
         </is>
       </c>
       <c r="G756" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757">
@@ -22804,11 +21056,7 @@
           <t>['其中：麻醉费', '其中：手术费', '其中：抗菌药物费']</t>
         </is>
       </c>
-      <c r="C757" t="inlineStr">
-        <is>
-          <t>其中：麻醉费</t>
-        </is>
-      </c>
+      <c r="C757" t="inlineStr"/>
       <c r="D757" t="n">
         <v>8.853527779062121</v>
       </c>
@@ -22823,7 +21071,7 @@
         </is>
       </c>
       <c r="G757" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758">
@@ -22837,11 +21085,7 @@
           <t>['其中：手术费', '其中：麻醉费', '其中：抗菌药物费']</t>
         </is>
       </c>
-      <c r="C758" t="inlineStr">
-        <is>
-          <t>其中：手术费</t>
-        </is>
-      </c>
+      <c r="C758" t="inlineStr"/>
       <c r="D758" t="n">
         <v>9.471003295851244</v>
       </c>
@@ -22856,7 +21100,7 @@
         </is>
       </c>
       <c r="G758" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759">
@@ -22870,11 +21114,7 @@
           <t>['11.康复费', '15.中草药费', '14.中成药费']</t>
         </is>
       </c>
-      <c r="C759" t="inlineStr">
-        <is>
-          <t>11.康复费</t>
-        </is>
-      </c>
+      <c r="C759" t="inlineStr"/>
       <c r="D759" t="n">
         <v>8.799931664267401</v>
       </c>
@@ -22889,7 +21129,7 @@
         </is>
       </c>
       <c r="G759" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760">
@@ -22903,11 +21143,7 @@
           <t>['12.中医治疗费', '10.手术治疗费', '其中：临床物理治疗费']</t>
         </is>
       </c>
-      <c r="C760" t="inlineStr">
-        <is>
-          <t>12.中医治疗费</t>
-        </is>
-      </c>
+      <c r="C760" t="inlineStr"/>
       <c r="D760" t="n">
         <v>10.71545341382769</v>
       </c>
@@ -22922,7 +21158,7 @@
         </is>
       </c>
       <c r="G760" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761">
@@ -22936,11 +21172,7 @@
           <t>['13.西药费', '16.血费', '3.护理费']</t>
         </is>
       </c>
-      <c r="C761" t="inlineStr">
-        <is>
-          <t>13.西药费</t>
-        </is>
-      </c>
+      <c r="C761" t="inlineStr"/>
       <c r="D761" t="n">
         <v>11.64128225749612</v>
       </c>
@@ -22955,7 +21187,7 @@
         </is>
       </c>
       <c r="G761" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762">
@@ -22969,11 +21201,7 @@
           <t>['其中：抗菌药物费', '其中：麻醉费', '其中：手术费']</t>
         </is>
       </c>
-      <c r="C762" t="inlineStr">
-        <is>
-          <t>其中：抗菌药物费</t>
-        </is>
-      </c>
+      <c r="C762" t="inlineStr"/>
       <c r="D762" t="n">
         <v>11.92533853390331</v>
       </c>
@@ -22988,7 +21216,7 @@
         </is>
       </c>
       <c r="G762" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763">
@@ -23002,11 +21230,7 @@
           <t>['14.中成药费', '15.中草药费', '11.康复费']</t>
         </is>
       </c>
-      <c r="C763" t="inlineStr">
-        <is>
-          <t>14.中成药费</t>
-        </is>
-      </c>
+      <c r="C763" t="inlineStr"/>
       <c r="D763" t="n">
         <v>8.799931664267401</v>
       </c>
@@ -23021,7 +21245,7 @@
         </is>
       </c>
       <c r="G763" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764">
@@ -23035,11 +21259,7 @@
           <t>['15.中草药费', '14.中成药费', '11.康复费']</t>
         </is>
       </c>
-      <c r="C764" t="inlineStr">
-        <is>
-          <t>15.中草药费</t>
-        </is>
-      </c>
+      <c r="C764" t="inlineStr"/>
       <c r="D764" t="n">
         <v>8.799931664267401</v>
       </c>
@@ -23054,7 +21274,7 @@
         </is>
       </c>
       <c r="G764" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765">
@@ -23068,11 +21288,7 @@
           <t>['16.血费', '3.护理费', '12.中医治疗费']</t>
         </is>
       </c>
-      <c r="C765" t="inlineStr">
-        <is>
-          <t>16.血费</t>
-        </is>
-      </c>
+      <c r="C765" t="inlineStr"/>
       <c r="D765" t="n">
         <v>8.791325789090994</v>
       </c>
@@ -23087,7 +21303,7 @@
         </is>
       </c>
       <c r="G765" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766">
@@ -23130,11 +21346,7 @@
           <t>['18.球蛋白类制品费', '17.白蛋白类制品费', '20.细胞因子类制品费']</t>
         </is>
       </c>
-      <c r="C767" t="inlineStr">
-        <is>
-          <t>18.球蛋白类制品费</t>
-        </is>
-      </c>
+      <c r="C767" t="inlineStr"/>
       <c r="D767" t="n">
         <v>11.31661480393706</v>
       </c>
@@ -23149,7 +21361,7 @@
         </is>
       </c>
       <c r="G767" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768">
@@ -23192,11 +21404,7 @@
           <t>['20.细胞因子类制品费', '17.白蛋白类制品费', '19.凝血因子类制品费']</t>
         </is>
       </c>
-      <c r="C769" t="inlineStr">
-        <is>
-          <t>20.细胞因子类制品费</t>
-        </is>
-      </c>
+      <c r="C769" t="inlineStr"/>
       <c r="D769" t="n">
         <v>11.31661480393706</v>
       </c>
@@ -23211,7 +21419,7 @@
         </is>
       </c>
       <c r="G769" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770">
@@ -23225,11 +21433,7 @@
           <t>['21.检查用一次性医用材料费', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C770" t="inlineStr">
-        <is>
-          <t>21.检查用一次性医用材料费</t>
-        </is>
-      </c>
+      <c r="C770" t="inlineStr"/>
       <c r="D770" t="n">
         <v>14.63094720643453</v>
       </c>
@@ -23244,7 +21448,7 @@
         </is>
       </c>
       <c r="G770" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771">
@@ -23258,11 +21462,7 @@
           <t>['22.治疗用一次性医用材料费', '23.手术用一次性医用材料费', '21.检查用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C771" t="inlineStr">
-        <is>
-          <t>23.手术用一次性医用材料费</t>
-        </is>
-      </c>
+      <c r="C771" t="inlineStr"/>
       <c r="D771" t="n">
         <v>14.21057708430449</v>
       </c>
@@ -23291,11 +21491,7 @@
           <t>['23.手术用一次性医用材料费', '22.治疗用一次性医用材料费', '21.检查用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C772" t="inlineStr">
-        <is>
-          <t>23.手术用一次性医用材料费</t>
-        </is>
-      </c>
+      <c r="C772" t="inlineStr"/>
       <c r="D772" t="n">
         <v>13.39071761791415</v>
       </c>
@@ -23310,7 +21506,7 @@
         </is>
       </c>
       <c r="G772" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773">
@@ -23324,11 +21520,7 @@
           <t>['24.其他费：', '其中：麻醉费', '其他诊断']</t>
         </is>
       </c>
-      <c r="C773" t="inlineStr">
-        <is>
-          <t>24.其他费：</t>
-        </is>
-      </c>
+      <c r="C773" t="inlineStr"/>
       <c r="D773" t="n">
         <v>8.77356297096761</v>
       </c>
@@ -23343,113 +21535,8 @@
         </is>
       </c>
       <c r="G773" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="774">
-      <c r="A774" t="inlineStr">
-        <is>
-          <t>llm选择与GT标准答案匹配准确率</t>
-        </is>
-      </c>
-      <c r="B774" t="n">
-        <v>0.5984455958549223</v>
-      </c>
-      <c r="C774" t="inlineStr"/>
-      <c r="D774" t="inlineStr"/>
-      <c r="E774" t="inlineStr"/>
-      <c r="F774" t="inlineStr"/>
-      <c r="G774" t="inlineStr"/>
-    </row>
-    <row r="775">
-      <c r="A775" t="inlineStr">
-        <is>
-          <t>GT标准答案中空值个数</t>
-        </is>
-      </c>
-      <c r="B775" t="n">
-        <v>344</v>
-      </c>
-      <c r="C775" t="inlineStr"/>
-      <c r="D775" t="inlineStr"/>
-      <c r="E775" t="inlineStr"/>
-      <c r="F775" t="inlineStr"/>
-      <c r="G775" t="inlineStr"/>
-    </row>
-    <row r="776">
-      <c r="A776" t="inlineStr">
-        <is>
-          <t>llm选择为空，GT也为空的匹配成功数量</t>
-        </is>
-      </c>
-      <c r="B776" t="n">
-        <v>195</v>
-      </c>
-      <c r="C776" t="inlineStr"/>
-      <c r="D776" t="inlineStr"/>
-      <c r="E776" t="inlineStr"/>
-      <c r="F776" t="inlineStr"/>
-      <c r="G776" t="inlineStr"/>
-    </row>
-    <row r="777">
-      <c r="A777" t="inlineStr">
-        <is>
-          <t>llm选择为空的数量</t>
-        </is>
-      </c>
-      <c r="B777" t="n">
-        <v>306</v>
-      </c>
-      <c r="C777" t="inlineStr"/>
-      <c r="D777" t="inlineStr"/>
-      <c r="E777" t="inlineStr"/>
-      <c r="F777" t="inlineStr"/>
-      <c r="G777" t="inlineStr"/>
-    </row>
-    <row r="778">
-      <c r="A778" t="inlineStr">
-        <is>
-          <t>llm选择非空的数量</t>
-        </is>
-      </c>
-      <c r="B778" t="n">
-        <v>466</v>
-      </c>
-      <c r="C778" t="inlineStr"/>
-      <c r="D778" t="inlineStr"/>
-      <c r="E778" t="inlineStr"/>
-      <c r="F778" t="inlineStr"/>
-      <c r="G778" t="inlineStr"/>
-    </row>
-    <row r="779">
-      <c r="A779" t="inlineStr">
-        <is>
-          <t>llm选择非空，但GT是空的数量</t>
-        </is>
-      </c>
-      <c r="B779" t="n">
-        <v>149</v>
-      </c>
-      <c r="C779" t="inlineStr"/>
-      <c r="D779" t="inlineStr"/>
-      <c r="E779" t="inlineStr"/>
-      <c r="F779" t="inlineStr"/>
-      <c r="G779" t="inlineStr"/>
-    </row>
-    <row r="780">
-      <c r="A780" t="inlineStr">
-        <is>
-          <t>llm选择为空，GT不为空的数量</t>
-        </is>
-      </c>
-      <c r="B780" t="n">
-        <v>111</v>
-      </c>
-      <c r="C780" t="inlineStr"/>
-      <c r="D780" t="inlineStr"/>
-      <c r="E780" t="inlineStr"/>
-      <c r="F780" t="inlineStr"/>
-      <c r="G780" t="inlineStr"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dataset/Matching_Results_Comparison/阈值设置85%.xlsx
+++ b/dataset/Matching_Results_Comparison/阈值设置85%.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>最高分相对比例</t>
+          <t>最高分相对比例（当前/max）</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>其他诊断</t>
+          <t>其他诊断诊断名称</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>其他诊断诊断名称</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D150" t="n">
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="H150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>手术及操作名称</t>
+          <t>病理诊断名称</t>
         </is>
       </c>
       <c r="D187" t="n">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>门（急）诊诊断疾病编码</t>
+          <t>24.其他费：</t>
         </is>
       </c>
       <c r="D198" t="n">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>手术及操作编码</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D230" t="n">
@@ -9360,7 +9360,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>手术及操作名称</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D260" t="n">
@@ -11400,7 +11400,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>手术及操作编码</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D320" t="n">
@@ -11840,7 +11840,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>手术及操作编码</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D333" t="n">
@@ -12928,7 +12928,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>手术及操作名称</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D365" t="n">
@@ -14696,7 +14696,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>手术及操作编码</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D417" t="n">
@@ -15280,7 +15280,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>手术及操作名称</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D434" t="n">
@@ -16096,7 +16096,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>手术及操作编码</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D458" t="n">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>手术及操作名称</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D470" t="n">
@@ -16912,7 +16912,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>手术及操作编码</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D482" t="n">
@@ -19360,7 +19360,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>手术及操作编码</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D554" t="n">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>手术及操作名称</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D566" t="n">
@@ -20176,7 +20176,7 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>手术及操作编码</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D578" t="n">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>手术及操作名称</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D590" t="n">
@@ -21808,7 +21808,7 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>手术及操作编码</t>
+          <t>手术及操作日期</t>
         </is>
       </c>
       <c r="D626" t="n">
@@ -22824,7 +22824,7 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>手术及操作名称</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D656" t="n">
@@ -23032,7 +23032,7 @@
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>手术及操作编码</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D662" t="n">
@@ -23944,7 +23944,7 @@
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>手术及操作名称</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D689" t="n">
@@ -24288,7 +24288,7 @@
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>手术及操作编码</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D699" t="n">

--- a/dataset/Matching_Results_Comparison/阈值设置85%.xlsx
+++ b/dataset/Matching_Results_Comparison/阈值设置85%.xlsx
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.5660621761658031</v>
+        <v>0.5246113989637305</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>741</v>
+        <v>772</v>
       </c>
     </row>
     <row r="7">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>313</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8">
@@ -748,7 +748,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>重症监护室名称</t>
+          <t>4.综合医疗服务类其他费用</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>其他诊断诊断名称</t>
+          <t>其他诊断</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>病理诊断名称</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D187" t="n">
@@ -7106,7 +7106,11 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr"/>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>24.其他费：</t>
+        </is>
+      </c>
       <c r="D190" t="n">
         <v>0</v>
       </c>
@@ -7115,12 +7119,12 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -7134,7 +7138,11 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr"/>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>24.其他费：</t>
+        </is>
+      </c>
       <c r="D191" t="n">
         <v>0</v>
       </c>
@@ -7143,12 +7151,12 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -7162,7 +7170,11 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr"/>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>24.其他费：</t>
+        </is>
+      </c>
       <c r="D192" t="n">
         <v>0</v>
       </c>
@@ -7171,12 +7183,12 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -7190,7 +7202,11 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr"/>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>24.其他费：</t>
+        </is>
+      </c>
       <c r="D193" t="n">
         <v>0</v>
       </c>
@@ -7199,12 +7215,12 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -7218,7 +7234,11 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr"/>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>24.其他费：</t>
+        </is>
+      </c>
       <c r="D194" t="n">
         <v>0</v>
       </c>
@@ -7227,12 +7247,12 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -7246,7 +7266,11 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr"/>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>24.其他费：</t>
+        </is>
+      </c>
       <c r="D195" t="n">
         <v>0</v>
       </c>
@@ -7255,12 +7279,12 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -7274,7 +7298,11 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr"/>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>24.其他费：</t>
+        </is>
+      </c>
       <c r="D196" t="n">
         <v>0</v>
       </c>
@@ -7283,12 +7311,12 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -7302,7 +7330,11 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr"/>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>24.其他费：</t>
+        </is>
+      </c>
       <c r="D197" t="n">
         <v>0</v>
       </c>
@@ -7311,12 +7343,12 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -7394,7 +7426,11 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr"/>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>24.其他费：</t>
+        </is>
+      </c>
       <c r="D200" t="n">
         <v>0</v>
       </c>
@@ -7403,12 +7439,12 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -7422,7 +7458,11 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr"/>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>22.治疗用一次性医用材料费</t>
+        </is>
+      </c>
       <c r="D201" t="n">
         <v>0</v>
       </c>
@@ -7431,12 +7471,12 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -7450,7 +7490,11 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr"/>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>24.其他费：</t>
+        </is>
+      </c>
       <c r="D202" t="n">
         <v>0</v>
       </c>
@@ -7459,12 +7503,12 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G202" t="inlineStr"/>
       <c r="H202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -7478,7 +7522,11 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr"/>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>24.其他费：</t>
+        </is>
+      </c>
       <c r="D203" t="n">
         <v>0</v>
       </c>
@@ -7487,12 +7535,12 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G203" t="inlineStr"/>
       <c r="H203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -7506,7 +7554,11 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr"/>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>22.治疗用一次性医用材料费</t>
+        </is>
+      </c>
       <c r="D204" t="n">
         <v>0</v>
       </c>
@@ -7515,12 +7567,12 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G204" t="inlineStr"/>
       <c r="H204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -7534,7 +7586,11 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr"/>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>24.其他费：</t>
+        </is>
+      </c>
       <c r="D205" t="n">
         <v>0</v>
       </c>
@@ -7543,12 +7599,12 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G205" t="inlineStr"/>
       <c r="H205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -7562,7 +7618,11 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr"/>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>24.其他费：</t>
+        </is>
+      </c>
       <c r="D206" t="n">
         <v>0</v>
       </c>
@@ -7571,12 +7631,12 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G206" t="inlineStr"/>
       <c r="H206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -7590,7 +7650,11 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr"/>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>24.其他费：</t>
+        </is>
+      </c>
       <c r="D207" t="n">
         <v>0</v>
       </c>
@@ -7599,12 +7663,12 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -7618,7 +7682,11 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr"/>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>24.其他费：</t>
+        </is>
+      </c>
       <c r="D208" t="n">
         <v>0</v>
       </c>
@@ -7627,12 +7695,12 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G208" t="inlineStr"/>
       <c r="H208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -7646,7 +7714,11 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr"/>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>24.其他费：</t>
+        </is>
+      </c>
       <c r="D209" t="n">
         <v>0</v>
       </c>
@@ -7655,12 +7727,12 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -7674,7 +7746,11 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr"/>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>24.其他费：</t>
+        </is>
+      </c>
       <c r="D210" t="n">
         <v>0</v>
       </c>
@@ -7683,12 +7759,12 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -7702,7 +7778,11 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr"/>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>24.其他费：</t>
+        </is>
+      </c>
       <c r="D211" t="n">
         <v>0</v>
       </c>
@@ -7711,12 +7791,12 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G211" t="inlineStr"/>
       <c r="H211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -7762,7 +7842,11 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr"/>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>24.其他费：</t>
+        </is>
+      </c>
       <c r="D213" t="n">
         <v>0</v>
       </c>
@@ -7771,12 +7855,12 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G213" t="inlineStr"/>
       <c r="H213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -8344,7 +8428,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>手术及操作日期</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D230" t="n">
@@ -9360,7 +9444,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>手术及操作编码</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D260" t="n">
@@ -11400,7 +11484,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>手术及操作名称</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D320" t="n">
@@ -15280,7 +15364,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>手术及操作编码</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D434" t="n">
@@ -16096,7 +16180,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>手术及操作日期</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D458" t="n">
@@ -16128,7 +16212,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>手术及操作名称</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D459" t="n">
@@ -16328,7 +16412,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>手术及操作名称</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D465" t="n">
@@ -16912,7 +16996,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>手术及操作名称</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D482" t="n">
@@ -17320,7 +17404,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>手术及操作名称</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D494" t="n">
@@ -19360,7 +19444,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>手术及操作名称</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D554" t="n">
@@ -20584,7 +20668,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>手术及操作编码</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D590" t="n">
@@ -21808,7 +21892,7 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>手术及操作日期</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D626" t="n">
@@ -22824,7 +22908,7 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>手术及操作编码</t>
+          <t>手术及操作名称</t>
         </is>
       </c>
       <c r="D656" t="n">
@@ -23032,7 +23116,7 @@
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>手术及操作名称</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D662" t="n">
@@ -24288,7 +24372,7 @@
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>手术及操作名称</t>
+          <t>手术及操作编码</t>
         </is>
       </c>
       <c r="D699" t="n">
@@ -24518,7 +24602,11 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C706" t="inlineStr"/>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>24.其他费：</t>
+        </is>
+      </c>
       <c r="D706" t="n">
         <v>0</v>
       </c>
@@ -24527,12 +24615,12 @@
       </c>
       <c r="F706" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G706" t="inlineStr"/>
       <c r="H706" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707">
@@ -24546,7 +24634,11 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C707" t="inlineStr"/>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>24.其他费：</t>
+        </is>
+      </c>
       <c r="D707" t="n">
         <v>0</v>
       </c>
@@ -24555,12 +24647,12 @@
       </c>
       <c r="F707" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G707" t="inlineStr"/>
       <c r="H707" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708">
@@ -24574,7 +24666,11 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C708" t="inlineStr"/>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>24.其他费：</t>
+        </is>
+      </c>
       <c r="D708" t="n">
         <v>0</v>
       </c>
@@ -24583,12 +24679,12 @@
       </c>
       <c r="F708" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G708" t="inlineStr"/>
       <c r="H708" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709">
@@ -24602,7 +24698,11 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C709" t="inlineStr"/>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>24.其他费：</t>
+        </is>
+      </c>
       <c r="D709" t="n">
         <v>0</v>
       </c>
@@ -24611,12 +24711,12 @@
       </c>
       <c r="F709" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G709" t="inlineStr"/>
       <c r="H709" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710">
@@ -24630,7 +24730,11 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C710" t="inlineStr"/>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>24.其他费：</t>
+        </is>
+      </c>
       <c r="D710" t="n">
         <v>0</v>
       </c>
@@ -24639,12 +24743,12 @@
       </c>
       <c r="F710" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G710" t="inlineStr"/>
       <c r="H710" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711">
@@ -24658,7 +24762,11 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C711" t="inlineStr"/>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>22.治疗用一次性医用材料费</t>
+        </is>
+      </c>
       <c r="D711" t="n">
         <v>0</v>
       </c>
@@ -24667,12 +24775,12 @@
       </c>
       <c r="F711" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G711" t="inlineStr"/>
       <c r="H711" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712">
@@ -24686,7 +24794,11 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C712" t="inlineStr"/>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>22.治疗用一次性医用材料费</t>
+        </is>
+      </c>
       <c r="D712" t="n">
         <v>0</v>
       </c>
@@ -24695,12 +24807,12 @@
       </c>
       <c r="F712" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G712" t="inlineStr"/>
       <c r="H712" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713">
@@ -24714,7 +24826,11 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C713" t="inlineStr"/>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>24.其他费：</t>
+        </is>
+      </c>
       <c r="D713" t="n">
         <v>0</v>
       </c>
@@ -24723,12 +24839,12 @@
       </c>
       <c r="F713" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G713" t="inlineStr"/>
       <c r="H713" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714">
@@ -24742,7 +24858,11 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C714" t="inlineStr"/>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>22.治疗用一次性医用材料费</t>
+        </is>
+      </c>
       <c r="D714" t="n">
         <v>0</v>
       </c>
@@ -24751,12 +24871,12 @@
       </c>
       <c r="F714" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G714" t="inlineStr"/>
       <c r="H714" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715">
@@ -24770,7 +24890,11 @@
           <t>['24.其他费：', '23.手术用一次性医用材料费', '22.治疗用一次性医用材料费']</t>
         </is>
       </c>
-      <c r="C715" t="inlineStr"/>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>23.手术用一次性医用材料费</t>
+        </is>
+      </c>
       <c r="D715" t="n">
         <v>0</v>
       </c>
@@ -24779,12 +24903,12 @@
       </c>
       <c r="F715" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
       <c r="G715" t="inlineStr"/>
       <c r="H715" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716">
@@ -25184,7 +25308,7 @@
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>24.其他费：</t>
+          <t>进重症监护室时间</t>
         </is>
       </c>
       <c r="D728" t="n">
